--- a/SUMMARY SHEETS/LLW_Genus_2PSummary.xlsx
+++ b/SUMMARY SHEETS/LLW_Genus_2PSummary.xlsx
@@ -659,28 +659,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00962</v>
+        <v>0.00000962</v>
       </c>
       <c r="F2" t="n">
         <v>-3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.103552206673843</v>
+        <v>0.000103552206673843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.047953592</v>
+        <v>0.000047953592</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.172061686401148</v>
+        <v>-0.000172061686401148</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.688246745604593</v>
+        <v>-0.000688246745604593</v>
       </c>
       <c r="K2" t="n">
-        <v>12.1225997488339</v>
+        <v>0.0121225997488339</v>
       </c>
       <c r="L2" t="n">
-        <v>19.3478834302117</v>
+        <v>0.0193478834302117</v>
       </c>
       <c r="M2" t="n">
         <v>1.59601767204043</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>6.44929447673723</v>
+        <v>0.00644929447673723</v>
       </c>
       <c r="P2" t="n">
         <v>0.532005890680142</v>
@@ -712,28 +712,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.086287184</v>
+        <v>0.000086287184</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23842388231073</v>
+        <v>0.00123842388231073</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1418234525</v>
+        <v>0.0001418234525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.508874964119125</v>
+        <v>0.000508874964119125</v>
       </c>
       <c r="J3" t="n">
-        <v>2.0354998564765</v>
+        <v>0.0020354998564765</v>
       </c>
       <c r="K3" t="n">
-        <v>12.1225997488339</v>
+        <v>0.0121225997488339</v>
       </c>
       <c r="L3" t="n">
-        <v>19.3478834302117</v>
+        <v>0.0193478834302117</v>
       </c>
       <c r="M3" t="n">
         <v>1.59601767204043</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>6.44929447673723</v>
+        <v>0.00644929447673723</v>
       </c>
       <c r="P3" t="n">
         <v>0.532005890680142</v>
@@ -765,16 +765,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197359721</v>
+        <v>0.000197359721</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1244318729817</v>
+        <v>0.0021244318729817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.500759969</v>
+        <v>0.000500759969</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.1225997488339</v>
+        <v>0.0121225997488339</v>
       </c>
       <c r="L4" t="n">
-        <v>19.3478834302117</v>
+        <v>0.0193478834302117</v>
       </c>
       <c r="M4" t="n">
         <v>1.59601767204043</v>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>6.44929447673723</v>
+        <v>0.00644929447673723</v>
       </c>
       <c r="P4" t="n">
         <v>0.532005890680142</v>
@@ -818,28 +818,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.804160217</v>
+        <v>0.000804160217</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6561917868676</v>
+        <v>0.0086561917868676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4020801085</v>
+        <v>0.0004020801085</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3280958934338</v>
+        <v>0.0043280958934338</v>
       </c>
       <c r="J5" t="n">
-        <v>17.3123835737352</v>
+        <v>0.0173123835737352</v>
       </c>
       <c r="K5" t="n">
-        <v>12.1225997488339</v>
+        <v>0.0121225997488339</v>
       </c>
       <c r="L5" t="n">
-        <v>19.3478834302117</v>
+        <v>0.0193478834302117</v>
       </c>
       <c r="M5" t="n">
         <v>1.59601767204043</v>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>6.44929447673723</v>
+        <v>0.00644929447673723</v>
       </c>
       <c r="P5" t="n">
         <v>0.532005890680142</v>
@@ -938,28 +938,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025193855</v>
+        <v>0.000025193855</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.271193272335845</v>
+        <v>0.000271193272335845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0865262835</v>
+        <v>0.0000865262835</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.931391641550054</v>
+        <v>-0.000931391641550054</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.65695820775027</v>
+        <v>-0.00465695820775027</v>
       </c>
       <c r="K2" t="n">
-        <v>97.6411365458678</v>
+        <v>0.0976411365458677</v>
       </c>
       <c r="L2" t="n">
-        <v>175.725764373281</v>
+        <v>0.175725764373281</v>
       </c>
       <c r="M2" t="n">
         <v>1.79971035354276</v>
@@ -968,7 +968,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>73.219068488867</v>
+        <v>0.073219068488867</v>
       </c>
       <c r="P2" t="n">
         <v>0.749879313976151</v>
@@ -991,28 +991,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.147858712</v>
+        <v>0.000147858712</v>
       </c>
       <c r="F3" t="n">
         <v>-17.940437746681</v>
       </c>
       <c r="G3" t="n">
-        <v>3.18318002152853</v>
+        <v>0.00318318002152853</v>
       </c>
       <c r="H3" t="n">
-        <v>0.600027521833333</v>
+        <v>0.000600027521833333</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.7647564017462</v>
+        <v>-0.0107647564017462</v>
       </c>
       <c r="J3" t="n">
-        <v>-53.823782008731</v>
+        <v>-0.053823782008731</v>
       </c>
       <c r="K3" t="n">
-        <v>97.6411365458678</v>
+        <v>0.0976411365458677</v>
       </c>
       <c r="L3" t="n">
-        <v>175.725764373281</v>
+        <v>0.175725764373281</v>
       </c>
       <c r="M3" t="n">
         <v>1.79971035354276</v>
@@ -1021,7 +1021,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>73.219068488867</v>
+        <v>0.073219068488867</v>
       </c>
       <c r="P3" t="n">
         <v>0.749879313976151</v>
@@ -1044,28 +1044,28 @@
         <v>39.4689630426982</v>
       </c>
       <c r="E4" t="n">
-        <v>1.05219633166667</v>
+        <v>0.00105219633166667</v>
       </c>
       <c r="F4" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G4" t="n">
-        <v>41.5290981282143</v>
+        <v>0.0415290981282143</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22456022533333</v>
+        <v>0.00122456022533333</v>
       </c>
       <c r="I4" t="n">
-        <v>8.78765859586174</v>
+        <v>0.00878765859586174</v>
       </c>
       <c r="J4" t="n">
-        <v>43.9382929793087</v>
+        <v>0.0439382929793087</v>
       </c>
       <c r="K4" t="n">
-        <v>97.6411365458678</v>
+        <v>0.0976411365458677</v>
       </c>
       <c r="L4" t="n">
-        <v>175.725764373281</v>
+        <v>0.175725764373281</v>
       </c>
       <c r="M4" t="n">
         <v>1.79971035354276</v>
@@ -1074,7 +1074,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>73.219068488867</v>
+        <v>0.073219068488867</v>
       </c>
       <c r="P4" t="n">
         <v>0.749879313976151</v>
@@ -1097,28 +1097,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>1.396924119</v>
+        <v>0.001396924119</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>45.1105743487621</v>
+        <v>0.0451105743487621</v>
       </c>
       <c r="H5" t="n">
-        <v>1.049024426</v>
+        <v>0.001049024426</v>
       </c>
       <c r="I5" t="n">
-        <v>22.583948891281</v>
+        <v>0.022583948891281</v>
       </c>
       <c r="J5" t="n">
-        <v>112.919744456405</v>
+        <v>0.112919744456405</v>
       </c>
       <c r="K5" t="n">
-        <v>97.6411365458678</v>
+        <v>0.0976411365458677</v>
       </c>
       <c r="L5" t="n">
-        <v>175.725764373281</v>
+        <v>0.175725764373281</v>
       </c>
       <c r="M5" t="n">
         <v>1.79971035354276</v>
@@ -1127,7 +1127,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>73.219068488867</v>
+        <v>0.073219068488867</v>
       </c>
       <c r="P5" t="n">
         <v>0.749879313976151</v>
@@ -1150,28 +1150,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.701124733</v>
+        <v>0.000701124733</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>7.54709077502691</v>
+        <v>0.00754709077502691</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3505623665</v>
+        <v>0.0003505623665</v>
       </c>
       <c r="I6" t="n">
-        <v>3.77354538751346</v>
+        <v>0.00377354538751346</v>
       </c>
       <c r="J6" t="n">
-        <v>18.8677269375673</v>
+        <v>0.0188677269375673</v>
       </c>
       <c r="K6" t="n">
-        <v>97.6411365458678</v>
+        <v>0.0976411365458677</v>
       </c>
       <c r="L6" t="n">
-        <v>175.725764373281</v>
+        <v>0.175725764373281</v>
       </c>
       <c r="M6" t="n">
         <v>1.79971035354276</v>
@@ -1180,7 +1180,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>73.219068488867</v>
+        <v>0.073219068488867</v>
       </c>
       <c r="P6" t="n">
         <v>0.749879313976151</v>
@@ -1270,28 +1270,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.070286425</v>
+        <v>0.000070286425</v>
       </c>
       <c r="F2" t="n">
         <v>8.97021887334051</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76535692500897</v>
+        <v>0.00176535692500897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.100503662</v>
+        <v>0.000100503662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.901539845712236</v>
+        <v>0.000901539845712236</v>
       </c>
       <c r="J2" t="n">
-        <v>11.7200179942591</v>
+        <v>0.0117200179942591</v>
       </c>
       <c r="K2" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L2" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M2" t="n">
         <v>6.38791351429558</v>
@@ -1300,7 +1300,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O2" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P2" t="n">
         <v>6.92023964048687</v>
@@ -1323,28 +1323,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E3" t="n">
-        <v>0.130720899</v>
+        <v>0.000130720899</v>
       </c>
       <c r="F3" t="n">
         <v>5.3821313240043</v>
       </c>
       <c r="G3" t="n">
-        <v>2.11067113562971</v>
+        <v>0.00211067113562971</v>
       </c>
       <c r="H3" t="n">
-        <v>0.157950274</v>
+        <v>0.000157950274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.850109117330463</v>
+        <v>0.000850109117330463</v>
       </c>
       <c r="J3" t="n">
-        <v>11.051418525296</v>
+        <v>0.011051418525296</v>
       </c>
       <c r="K3" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L3" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M3" t="n">
         <v>6.38791351429558</v>
@@ -1353,7 +1353,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O3" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P3" t="n">
         <v>6.92023964048687</v>
@@ -1376,28 +1376,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.185179649</v>
+        <v>0.000185179649</v>
       </c>
       <c r="F4" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99332237890205</v>
+        <v>0.00199332237890205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7571395565</v>
+        <v>0.0007571395565</v>
       </c>
       <c r="I4" t="n">
-        <v>-24.4501471420883</v>
+        <v>-0.0244501471420883</v>
       </c>
       <c r="J4" t="n">
-        <v>-317.851912847148</v>
+        <v>-0.317851912847148</v>
       </c>
       <c r="K4" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L4" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M4" t="n">
         <v>6.38791351429558</v>
@@ -1406,7 +1406,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O4" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P4" t="n">
         <v>6.92023964048687</v>
@@ -1429,28 +1429,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E5" t="n">
-        <v>1.329099464</v>
+        <v>0.001329099464</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>57.2271028632939</v>
+        <v>0.0572271028632939</v>
       </c>
       <c r="H5" t="n">
-        <v>1.466879572</v>
+        <v>0.001466879572</v>
       </c>
       <c r="I5" t="n">
-        <v>31.5797539720129</v>
+        <v>0.0315797539720129</v>
       </c>
       <c r="J5" t="n">
-        <v>410.536801636168</v>
+        <v>0.410536801636168</v>
       </c>
       <c r="K5" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L5" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M5" t="n">
         <v>6.38791351429558</v>
@@ -1459,7 +1459,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O5" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P5" t="n">
         <v>6.92023964048687</v>
@@ -1482,28 +1482,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>1.60465968</v>
+        <v>0.00160465968</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5459565123789</v>
+        <v>0.0345459565123789</v>
       </c>
       <c r="H6" t="n">
-        <v>1.371525854</v>
+        <v>0.001371525854</v>
       </c>
       <c r="I6" t="n">
-        <v>14.7634645209903</v>
+        <v>0.0147634645209903</v>
       </c>
       <c r="J6" t="n">
-        <v>191.925038772874</v>
+        <v>0.191925038772874</v>
       </c>
       <c r="K6" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L6" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M6" t="n">
         <v>6.38791351429558</v>
@@ -1512,7 +1512,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O6" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P6" t="n">
         <v>6.92023964048687</v>
@@ -1535,28 +1535,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.138392028</v>
+        <v>0.001138392028</v>
       </c>
       <c r="F7" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G7" t="n">
-        <v>12.2539507857912</v>
+        <v>0.0122539507857912</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73164182875</v>
+        <v>0.00173164182875</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.31992372847148</v>
+        <v>-0.00931992372847148</v>
       </c>
       <c r="J7" t="n">
-        <v>-121.159008470129</v>
+        <v>-0.121159008470129</v>
       </c>
       <c r="K7" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L7" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M7" t="n">
         <v>6.38791351429558</v>
@@ -1565,7 +1565,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O7" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P7" t="n">
         <v>6.92023964048687</v>
@@ -1588,28 +1588,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E8" t="n">
-        <v>2.3248916295</v>
+        <v>0.0023248916295</v>
       </c>
       <c r="F8" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G8" t="n">
-        <v>37.5386161921421</v>
+        <v>0.0375386161921421</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18377580425</v>
+        <v>0.00218377580425</v>
       </c>
       <c r="I8" t="n">
-        <v>11.7533681606566</v>
+        <v>0.0117533681606566</v>
       </c>
       <c r="J8" t="n">
-        <v>152.793786088536</v>
+        <v>0.152793786088536</v>
       </c>
       <c r="K8" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L8" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M8" t="n">
         <v>6.38791351429558</v>
@@ -1618,7 +1618,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O8" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P8" t="n">
         <v>6.92023964048687</v>
@@ -1641,16 +1641,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>2.042659979</v>
+        <v>0.002042659979</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9877285145318</v>
+        <v>0.0219877285145318</v>
       </c>
       <c r="H9" t="n">
-        <v>2.332366902</v>
+        <v>0.002332366902</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L9" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M9" t="n">
         <v>6.38791351429558</v>
@@ -1671,7 +1671,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O9" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P9" t="n">
         <v>6.92023964048687</v>
@@ -1694,28 +1694,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>2.622073825</v>
+        <v>0.002622073825</v>
       </c>
       <c r="F10" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G10" t="n">
-        <v>28.2246913347686</v>
+        <v>0.0282246913347686</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2512104355</v>
+        <v>0.0062512104355</v>
       </c>
       <c r="I10" t="n">
-        <v>-134.579341991389</v>
+        <v>-0.134579341991389</v>
       </c>
       <c r="J10" t="n">
-        <v>-1749.53144588805</v>
+        <v>-1.74953144588805</v>
       </c>
       <c r="K10" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L10" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M10" t="n">
         <v>6.38791351429558</v>
@@ -1724,7 +1724,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O10" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P10" t="n">
         <v>6.92023964048687</v>
@@ -1747,28 +1747,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E11" t="n">
-        <v>9.880347046</v>
+        <v>0.009880347046</v>
       </c>
       <c r="F11" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G11" t="n">
-        <v>319.06395196986</v>
+        <v>0.31906395196986</v>
       </c>
       <c r="H11" t="n">
-        <v>7.406335161</v>
+        <v>0.007406335161</v>
       </c>
       <c r="I11" t="n">
-        <v>159.44747386437</v>
+        <v>0.15944747386437</v>
       </c>
       <c r="J11" t="n">
-        <v>2072.81716023681</v>
+        <v>2.07281716023681</v>
       </c>
       <c r="K11" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L11" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M11" t="n">
         <v>6.38791351429558</v>
@@ -1777,7 +1777,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O11" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P11" t="n">
         <v>6.92023964048687</v>
@@ -1800,28 +1800,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>4.932323276</v>
+        <v>0.004932323276</v>
       </c>
       <c r="F12" t="n">
         <v>-43.0570505920345</v>
       </c>
       <c r="G12" t="n">
-        <v>53.0928232077503</v>
+        <v>0.0530928232077503</v>
       </c>
       <c r="H12" t="n">
-        <v>17.240062738</v>
+        <v>0.017240062738</v>
       </c>
       <c r="I12" t="n">
-        <v>-742.306253519914</v>
+        <v>-0.742306253519914</v>
       </c>
       <c r="J12" t="n">
-        <v>-9649.98129575888</v>
+        <v>-9.64998129575888</v>
       </c>
       <c r="K12" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L12" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M12" t="n">
         <v>6.38791351429558</v>
@@ -1830,7 +1830,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O12" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P12" t="n">
         <v>6.92023964048687</v>
@@ -1853,28 +1853,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E13" t="n">
-        <v>29.5478022</v>
+        <v>0.0295478022</v>
       </c>
       <c r="F13" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G13" t="n">
-        <v>1590.30151776103</v>
+        <v>1.59030151776103</v>
       </c>
       <c r="H13" t="n">
-        <v>19.537992092</v>
+        <v>0.019537992092</v>
       </c>
       <c r="I13" t="n">
-        <v>841.248313972013</v>
+        <v>0.841248313972013</v>
       </c>
       <c r="J13" t="n">
-        <v>10936.2280816362</v>
+        <v>10.9362280816362</v>
       </c>
       <c r="K13" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L13" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M13" t="n">
         <v>6.38791351429558</v>
@@ -1883,7 +1883,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O13" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P13" t="n">
         <v>6.92023964048687</v>
@@ -1906,28 +1906,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>9.528181984</v>
+        <v>0.009528181984</v>
       </c>
       <c r="F14" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>102.5638534338</v>
+        <v>0.1025638534338</v>
       </c>
       <c r="H14" t="n">
-        <v>4.764090992</v>
+        <v>0.004764090992</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2819267168999</v>
+        <v>0.0512819267168999</v>
       </c>
       <c r="J14" t="n">
-        <v>666.665047319699</v>
+        <v>0.666665047319699</v>
       </c>
       <c r="K14" t="n">
-        <v>2262.66954301489</v>
+        <v>2.26266954301489</v>
       </c>
       <c r="L14" t="n">
-        <v>14453.7373522098</v>
+        <v>14.4537373522098</v>
       </c>
       <c r="M14" t="n">
         <v>6.38791351429558</v>
@@ -1936,7 +1936,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O14" t="n">
-        <v>15658.215464894</v>
+        <v>15.658215464894</v>
       </c>
       <c r="P14" t="n">
         <v>6.92023964048687</v>
@@ -2026,28 +2026,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0021</v>
+        <v>0.0000021</v>
       </c>
       <c r="F2" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0678148546824542</v>
+        <v>0.0000678148546824542</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00105</v>
+        <v>0.00000105</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0339074273412271</v>
+        <v>0.0000339074273412271</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0339074273412271</v>
+        <v>0.0000339074273412271</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0678148546824542</v>
+        <v>0.0000678148546824542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0339074273412271</v>
+        <v>0.0000339074273412271</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00282561894510226</v>
+        <v>0.00000282561894510226</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2146,28 +2146,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0096</v>
+        <v>0.0000096</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.413347685683531</v>
+        <v>0.000413347685683531</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0252506091666667</v>
+        <v>0.0000252506091666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.543608378184428</v>
+        <v>0.000543608378184428</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63082513455328</v>
+        <v>0.00163082513455328</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75975318263366</v>
+        <v>0.00275975318263366</v>
       </c>
       <c r="L2" t="n">
-        <v>6.68882006996771</v>
+        <v>0.00668882006996771</v>
       </c>
       <c r="M2" t="n">
         <v>2.42370227600735</v>
@@ -2176,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67220501749193</v>
+        <v>0.00167220501749193</v>
       </c>
       <c r="P2" t="n">
         <v>0.605925569001836</v>
@@ -2199,28 +2199,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0409012183333333</v>
+        <v>0.0000409012183333333</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.88054291352709</v>
+        <v>0.00088054291352709</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0885399261666667</v>
+        <v>0.0000885399261666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.95306702009329</v>
+        <v>0.00095306702009329</v>
       </c>
       <c r="J3" t="n">
-        <v>2.85920106027987</v>
+        <v>0.00285920106027987</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75975318263366</v>
+        <v>0.00275975318263366</v>
       </c>
       <c r="L3" t="n">
-        <v>6.68882006996771</v>
+        <v>0.00668882006996771</v>
       </c>
       <c r="M3" t="n">
         <v>2.42370227600735</v>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67220501749193</v>
+        <v>0.00167220501749193</v>
       </c>
       <c r="P3" t="n">
         <v>0.605925569001836</v>
@@ -2252,28 +2252,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.136178634</v>
+        <v>0.000136178634</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46586258342304</v>
+        <v>0.00146586258342304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.068089317</v>
+        <v>0.000068089317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.732931291711518</v>
+        <v>0.000732931291711518</v>
       </c>
       <c r="J4" t="n">
-        <v>2.19879387513455</v>
+        <v>0.00219879387513455</v>
       </c>
       <c r="K4" t="n">
-        <v>2.75975318263366</v>
+        <v>0.00275975318263366</v>
       </c>
       <c r="L4" t="n">
-        <v>6.68882006996771</v>
+        <v>0.00668882006996771</v>
       </c>
       <c r="M4" t="n">
         <v>2.42370227600735</v>
@@ -2282,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67220501749193</v>
+        <v>0.00167220501749193</v>
       </c>
       <c r="P4" t="n">
         <v>0.605925569001836</v>
@@ -2372,16 +2372,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.016794994</v>
+        <v>0.000016794994</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.180785726587729</v>
+        <v>0.000180785726587729</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0328600915</v>
+        <v>0.0000328600915</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26.133438482239</v>
+        <v>0.026133438482239</v>
       </c>
       <c r="L2" t="n">
-        <v>91.124797416577</v>
+        <v>0.091124797416577</v>
       </c>
       <c r="M2" t="n">
         <v>3.48690423874026</v>
@@ -2402,7 +2402,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>37.9686655902404</v>
+        <v>0.0379686655902404</v>
       </c>
       <c r="P2" t="n">
         <v>1.45287676614178</v>
@@ -2425,16 +2425,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.048925189</v>
+        <v>0.000048925189</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.526643584499462</v>
+        <v>0.000526643584499462</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0766981195</v>
+        <v>0.0000766981195</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>26.133438482239</v>
+        <v>0.026133438482239</v>
       </c>
       <c r="L3" t="n">
-        <v>91.124797416577</v>
+        <v>0.091124797416577</v>
       </c>
       <c r="M3" t="n">
         <v>3.48690423874026</v>
@@ -2455,7 +2455,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>37.9686655902404</v>
+        <v>0.0379686655902404</v>
       </c>
       <c r="P3" t="n">
         <v>1.45287676614178</v>
@@ -2478,28 +2478,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10447105</v>
+        <v>0.00010447105</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.12455382131324</v>
+        <v>0.00112455382131324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.240404347</v>
+        <v>0.000240404347</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.587775532831</v>
+        <v>-0.002587775532831</v>
       </c>
       <c r="J4" t="n">
-        <v>-12.938877664155</v>
+        <v>-0.012938877664155</v>
       </c>
       <c r="K4" t="n">
-        <v>26.133438482239</v>
+        <v>0.026133438482239</v>
       </c>
       <c r="L4" t="n">
-        <v>91.124797416577</v>
+        <v>0.091124797416577</v>
       </c>
       <c r="M4" t="n">
         <v>3.48690423874026</v>
@@ -2508,7 +2508,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>37.9686655902404</v>
+        <v>0.0379686655902404</v>
       </c>
       <c r="P4" t="n">
         <v>1.45287676614178</v>
@@ -2531,28 +2531,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.376337644</v>
+        <v>0.000376337644</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>8.10199448869753</v>
+        <v>0.00810199448869752</v>
       </c>
       <c r="H5" t="n">
-        <v>0.940633779</v>
+        <v>0.000940633779</v>
       </c>
       <c r="I5" t="n">
-        <v>10.1252290527449</v>
+        <v>0.0101252290527449</v>
       </c>
       <c r="J5" t="n">
-        <v>50.6261452637244</v>
+        <v>0.0506261452637244</v>
       </c>
       <c r="K5" t="n">
-        <v>26.133438482239</v>
+        <v>0.026133438482239</v>
       </c>
       <c r="L5" t="n">
-        <v>91.124797416577</v>
+        <v>0.091124797416577</v>
       </c>
       <c r="M5" t="n">
         <v>3.48690423874026</v>
@@ -2561,7 +2561,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>37.9686655902404</v>
+        <v>0.0379686655902404</v>
       </c>
       <c r="P5" t="n">
         <v>1.45287676614178</v>
@@ -2584,28 +2584,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.504929914</v>
+        <v>0.001504929914</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>16.199460861141</v>
+        <v>0.016199460861141</v>
       </c>
       <c r="H6" t="n">
-        <v>0.752464957</v>
+        <v>0.000752464957</v>
       </c>
       <c r="I6" t="n">
-        <v>8.09973043057051</v>
+        <v>0.00809973043057051</v>
       </c>
       <c r="J6" t="n">
-        <v>40.4986521528525</v>
+        <v>0.0404986521528525</v>
       </c>
       <c r="K6" t="n">
-        <v>26.133438482239</v>
+        <v>0.026133438482239</v>
       </c>
       <c r="L6" t="n">
-        <v>91.124797416577</v>
+        <v>0.091124797416577</v>
       </c>
       <c r="M6" t="n">
         <v>3.48690423874026</v>
@@ -2614,7 +2614,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>37.9686655902404</v>
+        <v>0.0379686655902404</v>
       </c>
       <c r="P6" t="n">
         <v>1.45287676614178</v>
@@ -2704,28 +2704,28 @@
         <v>129.171151776103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0588</v>
+        <v>0.0000588</v>
       </c>
       <c r="F2" t="n">
         <v>-40.9041980624327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.59526372443488</v>
+        <v>0.00759526372443488</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2673697531</v>
+        <v>0.0002673697531</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.9365453367061</v>
+        <v>-0.0109365453367061</v>
       </c>
       <c r="J2" t="n">
-        <v>-174.984725387298</v>
+        <v>-0.174984725387298</v>
       </c>
       <c r="K2" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L2" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M2" t="n">
         <v>6.51421008068059</v>
@@ -2734,7 +2734,7 @@
         <v>0.75</v>
       </c>
       <c r="O2" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P2" t="n">
         <v>8.68561344090745</v>
@@ -2757,28 +2757,28 @@
         <v>170.075349838536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4759395062</v>
+        <v>0.0004759395062</v>
       </c>
       <c r="F3" t="n">
         <v>76.4262648008611</v>
       </c>
       <c r="G3" t="n">
-        <v>80.9455780189451</v>
+        <v>0.0809455780189451</v>
       </c>
       <c r="H3" t="n">
-        <v>0.544437638775</v>
+        <v>0.000544437638775</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6093351485737</v>
+        <v>0.0416093351485737</v>
       </c>
       <c r="J3" t="n">
-        <v>665.74936237718</v>
+        <v>0.66574936237718</v>
       </c>
       <c r="K3" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L3" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M3" t="n">
         <v>6.51421008068059</v>
@@ -2787,7 +2787,7 @@
         <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P3" t="n">
         <v>8.68561344090745</v>
@@ -2810,28 +2810,28 @@
         <v>93.6490850376749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61293577135</v>
+        <v>0.00061293577135</v>
       </c>
       <c r="F4" t="n">
         <v>-79.2967348403301</v>
       </c>
       <c r="G4" t="n">
-        <v>57.400874173789</v>
+        <v>0.057400874173789</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55187451110357</v>
+        <v>0.00155187451110357</v>
       </c>
       <c r="I4" t="n">
-        <v>-123.058581612447</v>
+        <v>-0.123058581612447</v>
       </c>
       <c r="J4" t="n">
-        <v>-1968.93730579915</v>
+        <v>-1.96893730579915</v>
       </c>
       <c r="K4" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L4" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M4" t="n">
         <v>6.51421008068059</v>
@@ -2840,7 +2840,7 @@
         <v>0.75</v>
       </c>
       <c r="O4" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P4" t="n">
         <v>8.68561344090745</v>
@@ -2863,28 +2863,28 @@
         <v>172.945819878005</v>
       </c>
       <c r="E5" t="n">
-        <v>2.49081325085714</v>
+        <v>0.00249081325085714</v>
       </c>
       <c r="F5" t="n">
         <v>83.2436311445999</v>
       </c>
       <c r="G5" t="n">
-        <v>430.775739832488</v>
+        <v>0.430775739832488</v>
       </c>
       <c r="H5" t="n">
-        <v>2.27387644859524</v>
+        <v>0.00227387644859524</v>
       </c>
       <c r="I5" t="n">
-        <v>189.285732355255</v>
+        <v>0.189285732355255</v>
       </c>
       <c r="J5" t="n">
-        <v>3028.57171768408</v>
+        <v>3.02857171768408</v>
       </c>
       <c r="K5" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M5" t="n">
         <v>6.51421008068059</v>
@@ -2893,7 +2893,7 @@
         <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P5" t="n">
         <v>8.68561344090745</v>
@@ -2916,28 +2916,28 @@
         <v>89.7021887334051</v>
       </c>
       <c r="E6" t="n">
-        <v>2.05693964633333</v>
+        <v>0.00205693964633333</v>
       </c>
       <c r="F6" t="n">
         <v>-20.0932902762827</v>
       </c>
       <c r="G6" t="n">
-        <v>184.511988368616</v>
+        <v>0.184511988368616</v>
       </c>
       <c r="H6" t="n">
-        <v>3.76073301913333</v>
+        <v>0.00376073301913333</v>
       </c>
       <c r="I6" t="n">
-        <v>-75.5655002050473</v>
+        <v>-0.0755655002050473</v>
       </c>
       <c r="J6" t="n">
-        <v>-1209.04800328076</v>
+        <v>-1.20904800328076</v>
       </c>
       <c r="K6" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L6" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M6" t="n">
         <v>6.51421008068059</v>
@@ -2946,7 +2946,7 @@
         <v>0.75</v>
       </c>
       <c r="O6" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P6" t="n">
         <v>8.68561344090745</v>
@@ -2969,28 +2969,28 @@
         <v>109.795479009688</v>
       </c>
       <c r="E7" t="n">
-        <v>5.46452639193333</v>
+        <v>0.00546452639193333</v>
       </c>
       <c r="F7" t="n">
         <v>45.2099031216362</v>
       </c>
       <c r="G7" t="n">
-        <v>599.980292763402</v>
+        <v>0.599980292763402</v>
       </c>
       <c r="H7" t="n">
-        <v>5.13925271688333</v>
+        <v>0.00513925271688333</v>
       </c>
       <c r="I7" t="n">
-        <v>232.345117447901</v>
+        <v>0.232345117447901</v>
       </c>
       <c r="J7" t="n">
-        <v>3717.52187916642</v>
+        <v>3.71752187916642</v>
       </c>
       <c r="K7" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L7" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M7" t="n">
         <v>6.51421008068059</v>
@@ -2999,7 +2999,7 @@
         <v>0.75</v>
       </c>
       <c r="O7" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P7" t="n">
         <v>8.68561344090745</v>
@@ -3022,28 +3022,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E8" t="n">
-        <v>4.81397904183333</v>
+        <v>0.00481397904183333</v>
       </c>
       <c r="F8" t="n">
         <v>50.2332256907069</v>
       </c>
       <c r="G8" t="n">
-        <v>310.913608729817</v>
+        <v>0.310913608729817</v>
       </c>
       <c r="H8" t="n">
-        <v>3.16591753975</v>
+        <v>0.00316591753975</v>
       </c>
       <c r="I8" t="n">
-        <v>159.034250292429</v>
+        <v>0.159034250292429</v>
       </c>
       <c r="J8" t="n">
-        <v>2544.54800467887</v>
+        <v>2.54454800467887</v>
       </c>
       <c r="K8" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L8" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M8" t="n">
         <v>6.51421008068059</v>
@@ -3052,7 +3052,7 @@
         <v>0.75</v>
       </c>
       <c r="O8" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P8" t="n">
         <v>8.68561344090745</v>
@@ -3075,28 +3075,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E9" t="n">
-        <v>1.51785603766667</v>
+        <v>0.00151785603766667</v>
       </c>
       <c r="F9" t="n">
         <v>-7.17617509867241</v>
       </c>
       <c r="G9" t="n">
-        <v>21.7848014017462</v>
+        <v>0.0217848014017462</v>
       </c>
       <c r="H9" t="n">
-        <v>2.30885577183333</v>
+        <v>0.00230885577183333</v>
       </c>
       <c r="I9" t="n">
-        <v>-16.5687532962564</v>
+        <v>-0.0165687532962564</v>
       </c>
       <c r="J9" t="n">
-        <v>-265.100052740103</v>
+        <v>-0.265100052740103</v>
       </c>
       <c r="K9" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L9" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M9" t="n">
         <v>6.51421008068059</v>
@@ -3105,7 +3105,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P9" t="n">
         <v>8.68561344090745</v>
@@ -3128,28 +3128,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E10" t="n">
-        <v>3.099855506</v>
+        <v>0.003099855506</v>
       </c>
       <c r="F10" t="n">
         <v>-68.1736634373879</v>
       </c>
       <c r="G10" t="n">
-        <v>66.7353176749193</v>
+        <v>0.0667353176749193</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0610110005</v>
+        <v>0.0100610110005</v>
       </c>
       <c r="I10" t="n">
-        <v>-685.895977787944</v>
+        <v>-0.685895977787944</v>
       </c>
       <c r="J10" t="n">
-        <v>-10974.3356446071</v>
+        <v>-10.9743356446071</v>
       </c>
       <c r="K10" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L10" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M10" t="n">
         <v>6.51421008068059</v>
@@ -3158,7 +3158,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P10" t="n">
         <v>8.68561344090745</v>
@@ -3181,28 +3181,28 @@
         <v>89.7021887334051</v>
       </c>
       <c r="E11" t="n">
-        <v>17.022166495</v>
+        <v>0.017022166495</v>
       </c>
       <c r="F11" t="n">
         <v>57.4094007893793</v>
       </c>
       <c r="G11" t="n">
-        <v>1526.92559158594</v>
+        <v>1.52692559158593</v>
       </c>
       <c r="H11" t="n">
-        <v>12.44419398475</v>
+        <v>0.01244419398475</v>
       </c>
       <c r="I11" t="n">
-        <v>714.413719971296</v>
+        <v>0.714413719971295</v>
       </c>
       <c r="J11" t="n">
-        <v>11430.6195195407</v>
+        <v>11.4306195195407</v>
       </c>
       <c r="K11" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L11" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M11" t="n">
         <v>6.51421008068059</v>
@@ -3211,7 +3211,7 @@
         <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P11" t="n">
         <v>8.68561344090745</v>
@@ -3234,28 +3234,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E12" t="n">
-        <v>7.8662214745</v>
+        <v>0.0078662214745</v>
       </c>
       <c r="F12" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>254.022221996771</v>
+        <v>0.254022221996771</v>
       </c>
       <c r="H12" t="n">
-        <v>10.520008768125</v>
+        <v>0.010520008768125</v>
       </c>
       <c r="I12" t="n">
-        <v>-113.240137439451</v>
+        <v>-0.113240137439451</v>
       </c>
       <c r="J12" t="n">
-        <v>-1811.84219903122</v>
+        <v>-1.81184219903122</v>
       </c>
       <c r="K12" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L12" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M12" t="n">
         <v>6.51421008068059</v>
@@ -3264,7 +3264,7 @@
         <v>0.75</v>
       </c>
       <c r="O12" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P12" t="n">
         <v>8.68561344090745</v>
@@ -3287,28 +3287,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E13" t="n">
-        <v>13.17379606175</v>
+        <v>0.01317379606175</v>
       </c>
       <c r="F13" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G13" t="n">
-        <v>567.224803519914</v>
+        <v>0.567224803519914</v>
       </c>
       <c r="H13" t="n">
-        <v>8.617840715875</v>
+        <v>0.008617840715875</v>
       </c>
       <c r="I13" t="n">
-        <v>278.294102773143</v>
+        <v>0.278294102773143</v>
       </c>
       <c r="J13" t="n">
-        <v>4452.70564437029</v>
+        <v>4.45270564437029</v>
       </c>
       <c r="K13" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L13" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M13" t="n">
         <v>6.51421008068059</v>
@@ -3317,7 +3317,7 @@
         <v>0.75</v>
       </c>
       <c r="O13" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P13" t="n">
         <v>8.68561344090745</v>
@@ -3340,28 +3340,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>4.06188537</v>
+        <v>0.00406188537</v>
       </c>
       <c r="F14" t="n">
         <v>-53.8213132400431</v>
       </c>
       <c r="G14" t="n">
-        <v>43.7232009687836</v>
+        <v>0.0437232009687836</v>
       </c>
       <c r="H14" t="n">
-        <v>16.827912513</v>
+        <v>0.016827912513</v>
       </c>
       <c r="I14" t="n">
-        <v>-905.700350538213</v>
+        <v>-0.905700350538213</v>
       </c>
       <c r="J14" t="n">
-        <v>-14491.2056086114</v>
+        <v>-14.4912056086114</v>
       </c>
       <c r="K14" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L14" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M14" t="n">
         <v>6.51421008068059</v>
@@ -3370,7 +3370,7 @@
         <v>0.75</v>
       </c>
       <c r="O14" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P14" t="n">
         <v>8.68561344090745</v>
@@ -3393,28 +3393,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E15" t="n">
-        <v>29.593939656</v>
+        <v>0.029593939656</v>
       </c>
       <c r="F15" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G15" t="n">
-        <v>1911.34163547901</v>
+        <v>1.91134163547901</v>
       </c>
       <c r="H15" t="n">
-        <v>21.795235648</v>
+        <v>0.021795235648</v>
       </c>
       <c r="I15" t="n">
-        <v>938.438563961249</v>
+        <v>0.938438563961249</v>
       </c>
       <c r="J15" t="n">
-        <v>15015.01702338</v>
+        <v>15.01501702338</v>
       </c>
       <c r="K15" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L15" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M15" t="n">
         <v>6.51421008068059</v>
@@ -3423,7 +3423,7 @@
         <v>0.75</v>
       </c>
       <c r="O15" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P15" t="n">
         <v>8.68561344090745</v>
@@ -3446,16 +3446,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E16" t="n">
-        <v>13.99653164</v>
+        <v>0.01399653164</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>301.324685468245</v>
+        <v>0.301324685468245</v>
       </c>
       <c r="H16" t="n">
-        <v>16.526447804</v>
+        <v>0.016526447804</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3464,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L16" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M16" t="n">
         <v>6.51421008068059</v>
@@ -3476,7 +3476,7 @@
         <v>0.75</v>
       </c>
       <c r="O16" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P16" t="n">
         <v>8.68561344090745</v>
@@ -3499,28 +3499,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E17" t="n">
-        <v>19.056363968</v>
+        <v>0.019056363968</v>
       </c>
       <c r="F17" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G17" t="n">
-        <v>410.255413735199</v>
+        <v>0.410255413735199</v>
       </c>
       <c r="H17" t="n">
-        <v>9.528181984</v>
+        <v>0.009528181984</v>
       </c>
       <c r="I17" t="n">
-        <v>205.1277068676</v>
+        <v>0.2051277068676</v>
       </c>
       <c r="J17" t="n">
-        <v>3282.04330988159</v>
+        <v>3.28204330988159</v>
       </c>
       <c r="K17" t="n">
-        <v>6775.46101744201</v>
+        <v>6.77546101744201</v>
       </c>
       <c r="L17" t="n">
-        <v>44136.7764610791</v>
+        <v>44.1367764610791</v>
       </c>
       <c r="M17" t="n">
         <v>6.51421008068059</v>
@@ -3529,7 +3529,7 @@
         <v>0.75</v>
       </c>
       <c r="O17" t="n">
-        <v>58849.0352814388</v>
+        <v>58.8490352814388</v>
       </c>
       <c r="P17" t="n">
         <v>8.68561344090745</v>
@@ -3619,28 +3619,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00215</v>
+        <v>0.00000215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -3649,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00192859705776821</v>
+        <v>0.00000192859705776821</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3739,28 +3739,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>2.695629268</v>
+        <v>0.002695629268</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>29.0164614424112</v>
+        <v>0.0290164614424112</v>
       </c>
       <c r="H2" t="n">
-        <v>1.347814634</v>
+        <v>0.001347814634</v>
       </c>
       <c r="I2" t="n">
-        <v>14.5082307212056</v>
+        <v>0.0145082307212056</v>
       </c>
       <c r="J2" t="n">
-        <v>14.5082307212056</v>
+        <v>0.0145082307212056</v>
       </c>
       <c r="K2" t="n">
-        <v>29.0164614424112</v>
+        <v>0.0290164614424112</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5082307212056</v>
+        <v>0.0145082307212056</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -3769,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.20901922676713</v>
+        <v>0.00120901922676713</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3859,28 +3859,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.082</v>
+        <v>0.000082</v>
       </c>
       <c r="F2" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G2" t="n">
-        <v>4.41334768568353</v>
+        <v>0.00441334768568353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2491658365</v>
+        <v>0.0002491658365</v>
       </c>
       <c r="I2" t="n">
-        <v>4.47014417832795</v>
+        <v>0.00447014417832795</v>
       </c>
       <c r="J2" t="n">
-        <v>26.8208650699677</v>
+        <v>0.0268208650699677</v>
       </c>
       <c r="K2" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L2" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M2" t="n">
         <v>2.8003564025151</v>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P2" t="n">
         <v>1.40017820125755</v>
@@ -3912,28 +3912,28 @@
         <v>35.880875493362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.416331673</v>
+        <v>0.000416331673</v>
       </c>
       <c r="F3" t="n">
         <v>25.1166128453534</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9383449228561</v>
+        <v>0.0149383449228561</v>
       </c>
       <c r="H3" t="n">
-        <v>0.412952659</v>
+        <v>0.000412952659</v>
       </c>
       <c r="I3" t="n">
-        <v>10.3719720595623</v>
+        <v>0.0103719720595623</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2318323573735</v>
+        <v>0.0622318323573735</v>
       </c>
       <c r="K3" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L3" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M3" t="n">
         <v>2.8003564025151</v>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P3" t="n">
         <v>1.40017820125755</v>
@@ -3965,28 +3965,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.409573645</v>
+        <v>0.000409573645</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>4.40875828848224</v>
+        <v>0.00440875828848224</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1559993525</v>
+        <v>0.0011559993525</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.4434806512379</v>
+        <v>-0.0124434806512379</v>
       </c>
       <c r="J4" t="n">
-        <v>-74.6608839074273</v>
+        <v>-0.0746608839074273</v>
       </c>
       <c r="K4" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L4" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M4" t="n">
         <v>2.8003564025151</v>
@@ -3995,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P4" t="n">
         <v>1.40017820125755</v>
@@ -4018,28 +4018,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>1.90242506</v>
+        <v>0.00190242506</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>40.9564060279871</v>
+        <v>0.0409564060279871</v>
       </c>
       <c r="H5" t="n">
-        <v>1.865529952</v>
+        <v>0.001865529952</v>
       </c>
       <c r="I5" t="n">
-        <v>20.0810543810549</v>
+        <v>0.0200810543810549</v>
       </c>
       <c r="J5" t="n">
-        <v>120.486326286329</v>
+        <v>0.120486326286329</v>
       </c>
       <c r="K5" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L5" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M5" t="n">
         <v>2.8003564025151</v>
@@ -4048,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P5" t="n">
         <v>1.40017820125755</v>
@@ -4071,28 +4071,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.828634844</v>
+        <v>0.001828634844</v>
       </c>
       <c r="F6" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>19.6839057481163</v>
+        <v>0.0196839057481163</v>
       </c>
       <c r="H6" t="n">
-        <v>4.033557917</v>
+        <v>0.004033557917</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.4182768245425</v>
+        <v>-0.0434182768245425</v>
       </c>
       <c r="J6" t="n">
-        <v>-260.509660947255</v>
+        <v>-0.260509660947255</v>
       </c>
       <c r="K6" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L6" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M6" t="n">
         <v>2.8003564025151</v>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P6" t="n">
         <v>1.40017820125755</v>
@@ -4124,28 +4124,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>6.23848099</v>
+        <v>0.00623848099</v>
       </c>
       <c r="F7" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>134.305295801938</v>
+        <v>0.134305295801938</v>
       </c>
       <c r="H7" t="n">
-        <v>3.119240495</v>
+        <v>0.003119240495</v>
       </c>
       <c r="I7" t="n">
-        <v>67.1526479009688</v>
+        <v>0.0671526479009688</v>
       </c>
       <c r="J7" t="n">
-        <v>402.915887405813</v>
+        <v>0.402915887405813</v>
       </c>
       <c r="K7" t="n">
-        <v>218.706058475063</v>
+        <v>0.218706058475063</v>
       </c>
       <c r="L7" t="n">
-        <v>612.454911119483</v>
+        <v>0.612454911119483</v>
       </c>
       <c r="M7" t="n">
         <v>2.8003564025151</v>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>306.227455559742</v>
+        <v>0.306227455559742</v>
       </c>
       <c r="P7" t="n">
         <v>1.40017820125755</v>
@@ -4244,28 +4244,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.050667895</v>
+        <v>0.000050667895</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545402529601722</v>
+        <v>0.000545402529601722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0253339475</v>
+        <v>0.0000253339475</v>
       </c>
       <c r="I2" t="n">
-        <v>0.272701264800861</v>
+        <v>0.000272701264800861</v>
       </c>
       <c r="J2" t="n">
-        <v>0.272701264800861</v>
+        <v>0.000272701264800861</v>
       </c>
       <c r="K2" t="n">
-        <v>0.545402529601722</v>
+        <v>0.000545402529601722</v>
       </c>
       <c r="L2" t="n">
-        <v>0.272701264800861</v>
+        <v>0.000272701264800861</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4274,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0227251054000718</v>
+        <v>0.0000227251054000718</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4364,28 +4364,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.049077825</v>
+        <v>0.000049077825</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.528286598493003</v>
+        <v>0.000528286598493003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1706714375</v>
+        <v>0.0001706714375</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.83715217976319</v>
+        <v>-0.00183715217976319</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.6972174381055</v>
+        <v>-0.0146972174381055</v>
       </c>
       <c r="K2" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L2" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M2" t="n">
         <v>2.59424652849258</v>
@@ -4394,7 +4394,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P2" t="n">
         <v>1.72949768566172</v>
@@ -4417,28 +4417,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.29226505</v>
+        <v>0.00029226505</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.29203552206674</v>
+        <v>0.00629203552206674</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3045952185</v>
+        <v>0.0003045952185</v>
       </c>
       <c r="I3" t="n">
-        <v>3.27874293326157</v>
+        <v>0.00327874293326157</v>
       </c>
       <c r="J3" t="n">
-        <v>26.2299434660926</v>
+        <v>0.0262299434660926</v>
       </c>
       <c r="K3" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L3" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M3" t="n">
         <v>2.59424652849258</v>
@@ -4447,7 +4447,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P3" t="n">
         <v>1.72949768566172</v>
@@ -4470,28 +4470,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.316925387</v>
+        <v>0.000316925387</v>
       </c>
       <c r="F4" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G4" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="H4" t="n">
-        <v>1.169529663</v>
+        <v>0.001169529663</v>
       </c>
       <c r="I4" t="n">
-        <v>-31.4728111679225</v>
+        <v>-0.0314728111679225</v>
       </c>
       <c r="J4" t="n">
-        <v>-251.78248934338</v>
+        <v>-0.25178248934338</v>
       </c>
       <c r="K4" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L4" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M4" t="n">
         <v>2.59424652849258</v>
@@ -4500,7 +4500,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P4" t="n">
         <v>1.72949768566172</v>
@@ -4523,28 +4523,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E5" t="n">
-        <v>2.022133939</v>
+        <v>0.002022133939</v>
       </c>
       <c r="F5" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>76.1837329009688</v>
+        <v>0.0761837329009688</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9547336195</v>
+        <v>0.0019547336195</v>
       </c>
       <c r="I5" t="n">
-        <v>31.5618991307858</v>
+        <v>0.0315618991307858</v>
       </c>
       <c r="J5" t="n">
-        <v>252.495193046286</v>
+        <v>0.252495193046286</v>
       </c>
       <c r="K5" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L5" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M5" t="n">
         <v>2.59424652849258</v>
@@ -4553,7 +4553,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P5" t="n">
         <v>1.72949768566172</v>
@@ -4576,16 +4576,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8873333</v>
+        <v>0.0018873333</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.6315026910657</v>
+        <v>0.0406315026910657</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3724698625</v>
+        <v>0.0023724698625</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4594,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L6" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M6" t="n">
         <v>2.59424652849258</v>
@@ -4606,7 +4606,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P6" t="n">
         <v>1.72949768566172</v>
@@ -4629,28 +4629,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>2.857606425</v>
+        <v>0.002857606425</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>61.5200522066739</v>
+        <v>0.0615200522066739</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4520932635</v>
+        <v>0.0024520932635</v>
       </c>
       <c r="I7" t="n">
-        <v>26.3949759257266</v>
+        <v>0.0263949759257266</v>
       </c>
       <c r="J7" t="n">
-        <v>211.159807405813</v>
+        <v>0.211159807405813</v>
       </c>
       <c r="K7" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L7" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M7" t="n">
         <v>2.59424652849258</v>
@@ -4659,7 +4659,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P7" t="n">
         <v>1.72949768566172</v>
@@ -4682,16 +4682,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>2.046580102</v>
+        <v>0.002046580102</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.0299257481163</v>
+        <v>0.0220299257481163</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8887399805</v>
+        <v>0.0028887399805</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4700,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L8" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M8" t="n">
         <v>2.59424652849258</v>
@@ -4712,7 +4712,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P8" t="n">
         <v>1.72949768566172</v>
@@ -4735,28 +4735,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>3.730899859</v>
+        <v>0.003730899859</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>40.1603859956943</v>
+        <v>0.0401603859956943</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8654499295</v>
+        <v>0.0018654499295</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0801929978471</v>
+        <v>0.0200801929978471</v>
       </c>
       <c r="J9" t="n">
-        <v>160.641543982777</v>
+        <v>0.160641543982777</v>
       </c>
       <c r="K9" t="n">
-        <v>250.757389768568</v>
+        <v>0.250757389768568</v>
       </c>
       <c r="L9" t="n">
-        <v>650.526487900969</v>
+        <v>0.650526487900969</v>
       </c>
       <c r="M9" t="n">
         <v>2.59424652849258</v>
@@ -4765,7 +4765,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>433.684325267313</v>
+        <v>0.433684325267313</v>
       </c>
       <c r="P9" t="n">
         <v>1.72949768566172</v>
@@ -4855,28 +4855,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.658923909</v>
+        <v>0.000658923909</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>21.2784900645856</v>
+        <v>0.0212784900645856</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5815237855</v>
+        <v>0.0005815237855</v>
       </c>
       <c r="I2" t="n">
-        <v>12.5193495263724</v>
+        <v>0.0125193495263724</v>
       </c>
       <c r="J2" t="n">
-        <v>37.5580485791173</v>
+        <v>0.0375580485791173</v>
       </c>
       <c r="K2" t="n">
-        <v>68.0532923035522</v>
+        <v>0.0680532923035522</v>
       </c>
       <c r="L2" t="n">
-        <v>99.5804726803014</v>
+        <v>0.0995804726803014</v>
       </c>
       <c r="M2" t="n">
         <v>1.46327193453216</v>
@@ -4885,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>24.8951181700754</v>
+        <v>0.0248951181700754</v>
       </c>
       <c r="P2" t="n">
         <v>0.36581798363304</v>
@@ -4908,28 +4908,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.504123662</v>
+        <v>0.000504123662</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>5.42651950484392</v>
+        <v>0.00542651950484392</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2123756975</v>
+        <v>0.0012123756975</v>
       </c>
       <c r="I3" t="n">
-        <v>-13.0503304359526</v>
+        <v>-0.0130503304359526</v>
       </c>
       <c r="J3" t="n">
-        <v>-39.1509913078579</v>
+        <v>-0.0391509913078579</v>
       </c>
       <c r="K3" t="n">
-        <v>68.0532923035522</v>
+        <v>0.0680532923035522</v>
       </c>
       <c r="L3" t="n">
-        <v>99.5804726803014</v>
+        <v>0.0995804726803014</v>
       </c>
       <c r="M3" t="n">
         <v>1.46327193453216</v>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>24.8951181700754</v>
+        <v>0.0248951181700754</v>
       </c>
       <c r="P3" t="n">
         <v>0.36581798363304</v>
@@ -4961,28 +4961,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>1.920627733</v>
+        <v>0.001920627733</v>
       </c>
       <c r="F4" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>41.3482827341227</v>
+        <v>0.0413482827341227</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9603138665</v>
+        <v>0.0009603138665</v>
       </c>
       <c r="I4" t="n">
-        <v>20.6741413670614</v>
+        <v>0.0206741413670614</v>
       </c>
       <c r="J4" t="n">
-        <v>62.0224241011841</v>
+        <v>0.0620224241011841</v>
       </c>
       <c r="K4" t="n">
-        <v>68.0532923035522</v>
+        <v>0.0680532923035522</v>
       </c>
       <c r="L4" t="n">
-        <v>99.5804726803014</v>
+        <v>0.0995804726803014</v>
       </c>
       <c r="M4" t="n">
         <v>1.46327193453216</v>
@@ -4991,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>24.8951181700754</v>
+        <v>0.0248951181700754</v>
       </c>
       <c r="P4" t="n">
         <v>0.36581798363304</v>
@@ -5081,16 +5081,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.153531336</v>
+        <v>0.000153531336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65265162540366</v>
+        <v>0.00165265162540366</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4049318365</v>
+        <v>0.0004049318365</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5099,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.6445594940797</v>
+        <v>0.0776445594940797</v>
       </c>
       <c r="L2" t="n">
-        <v>102.187195586652</v>
+        <v>0.102187195586652</v>
       </c>
       <c r="M2" t="n">
         <v>1.3160895786194</v>
@@ -5111,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>34.0623985288841</v>
+        <v>0.0340623985288841</v>
       </c>
       <c r="P2" t="n">
         <v>0.438696526206467</v>
@@ -5134,16 +5134,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.656332337</v>
+        <v>0.000656332337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.0649336598493</v>
+        <v>0.0070649336598493</v>
       </c>
       <c r="H3" t="n">
-        <v>1.156526503</v>
+        <v>0.001156526503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>77.6445594940797</v>
+        <v>0.0776445594940797</v>
       </c>
       <c r="L3" t="n">
-        <v>102.187195586652</v>
+        <v>0.102187195586652</v>
       </c>
       <c r="M3" t="n">
         <v>1.3160895786194</v>
@@ -5164,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>34.0623985288841</v>
+        <v>0.0340623985288841</v>
       </c>
       <c r="P3" t="n">
         <v>0.438696526206467</v>
@@ -5187,16 +5187,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.656720669</v>
+        <v>0.001656720669</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.8333764155005</v>
+        <v>0.0178333764155005</v>
       </c>
       <c r="H4" t="n">
-        <v>3.201657952</v>
+        <v>0.003201657952</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>77.6445594940797</v>
+        <v>0.0776445594940797</v>
       </c>
       <c r="L4" t="n">
-        <v>102.187195586652</v>
+        <v>0.102187195586652</v>
       </c>
       <c r="M4" t="n">
         <v>1.3160895786194</v>
@@ -5217,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>34.0623985288841</v>
+        <v>0.0340623985288841</v>
       </c>
       <c r="P4" t="n">
         <v>0.438696526206467</v>
@@ -5240,28 +5240,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>4.746595235</v>
+        <v>0.004746595235</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>51.0935977933262</v>
+        <v>0.0510935977933262</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3732976175</v>
+        <v>0.0023732976175</v>
       </c>
       <c r="I5" t="n">
-        <v>25.5467988966631</v>
+        <v>0.0255467988966631</v>
       </c>
       <c r="J5" t="n">
-        <v>102.187195586652</v>
+        <v>0.102187195586652</v>
       </c>
       <c r="K5" t="n">
-        <v>77.6445594940797</v>
+        <v>0.0776445594940797</v>
       </c>
       <c r="L5" t="n">
-        <v>102.187195586652</v>
+        <v>0.102187195586652</v>
       </c>
       <c r="M5" t="n">
         <v>1.3160895786194</v>
@@ -5270,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>34.0623985288841</v>
+        <v>0.0340623985288841</v>
       </c>
       <c r="P5" t="n">
         <v>0.438696526206467</v>
@@ -5360,28 +5360,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22698157</v>
+        <v>0.00022698157</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8865784714747</v>
+        <v>0.0048865784714747</v>
       </c>
       <c r="H2" t="n">
-        <v>0.515317967</v>
+        <v>0.000515317967</v>
       </c>
       <c r="I2" t="n">
-        <v>5.54701794402583</v>
+        <v>0.00554701794402583</v>
       </c>
       <c r="J2" t="n">
-        <v>33.282107664155</v>
+        <v>0.033282107664155</v>
       </c>
       <c r="K2" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L2" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M2" t="n">
         <v>2.61796241841147</v>
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P2" t="n">
         <v>1.30898120920574</v>
@@ -5413,16 +5413,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.803654364</v>
+        <v>0.000803654364</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.65074665231432</v>
+        <v>0.00865074665231432</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3072809985</v>
+        <v>0.0013072809985</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L3" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M3" t="n">
         <v>2.61796241841147</v>
@@ -5443,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P3" t="n">
         <v>1.30898120920574</v>
@@ -5466,16 +5466,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.810907633</v>
+        <v>0.001810907633</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="H4" t="n">
-        <v>2.605811078</v>
+        <v>0.002605811078</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5484,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L4" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M4" t="n">
         <v>2.61796241841147</v>
@@ -5496,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P4" t="n">
         <v>1.30898120920574</v>
@@ -5519,28 +5519,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>3.400714523</v>
+        <v>0.003400714523</v>
       </c>
       <c r="F5" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>36.6061843164693</v>
+        <v>0.0366061843164693</v>
       </c>
       <c r="H5" t="n">
-        <v>8.81393411625</v>
+        <v>0.00881393411625</v>
       </c>
       <c r="I5" t="n">
-        <v>-142.313252684338</v>
+        <v>-0.142313252684338</v>
       </c>
       <c r="J5" t="n">
-        <v>-853.879516106028</v>
+        <v>-0.853879516106028</v>
       </c>
       <c r="K5" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L5" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M5" t="n">
         <v>2.61796241841147</v>
@@ -5549,7 +5549,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P5" t="n">
         <v>1.30898120920574</v>
@@ -5572,28 +5572,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E6" t="n">
-        <v>14.2271537095</v>
+        <v>0.0142271537095</v>
       </c>
       <c r="F6" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G6" t="n">
-        <v>382.86204815662</v>
+        <v>0.38286204815662</v>
       </c>
       <c r="H6" t="n">
-        <v>11.51107589325</v>
+        <v>0.01151107589325</v>
       </c>
       <c r="I6" t="n">
-        <v>185.862366414155</v>
+        <v>0.185862366414155</v>
       </c>
       <c r="J6" t="n">
-        <v>1115.17419848493</v>
+        <v>1.11517419848493</v>
       </c>
       <c r="K6" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L6" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M6" t="n">
         <v>2.61796241841147</v>
@@ -5602,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P6" t="n">
         <v>1.30898120920574</v>
@@ -5625,28 +5625,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>8.794998077</v>
+        <v>0.008794998077</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>94.6716692895587</v>
+        <v>0.0946716692895587</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3974990385</v>
+        <v>0.0043974990385</v>
       </c>
       <c r="I7" t="n">
-        <v>47.3358346447793</v>
+        <v>0.0473358346447793</v>
       </c>
       <c r="J7" t="n">
-        <v>284.015007868676</v>
+        <v>0.284015007868676</v>
       </c>
       <c r="K7" t="n">
-        <v>547.170312279333</v>
+        <v>0.547170312279333</v>
       </c>
       <c r="L7" t="n">
-        <v>1432.47131401776</v>
+        <v>1.43247131401776</v>
       </c>
       <c r="M7" t="n">
         <v>2.61796241841147</v>
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>716.235657008881</v>
+        <v>0.716235657008881</v>
       </c>
       <c r="P7" t="n">
         <v>1.30898120920574</v>
@@ -5745,28 +5745,28 @@
         <v>68.1736634373879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.019</v>
+        <v>0.000019</v>
       </c>
       <c r="F2" t="n">
         <v>-368.317186939361</v>
       </c>
       <c r="G2" t="n">
-        <v>1.29529960531037</v>
+        <v>0.00129529960531037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.39145377245</v>
+        <v>0.00039145377245</v>
       </c>
       <c r="I2" t="n">
-        <v>-144.179152285585</v>
+        <v>-0.144179152285585</v>
       </c>
       <c r="J2" t="n">
-        <v>-1153.43321828468</v>
+        <v>-1.15343321828468</v>
       </c>
       <c r="K2" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L2" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M2" t="n">
         <v>2.72345306647601</v>
@@ -5775,7 +5775,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P2" t="n">
         <v>1.81563537765067</v>
@@ -5798,28 +5798,28 @@
         <v>436.490850376749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7639075449</v>
+        <v>0.0007639075449</v>
       </c>
       <c r="F3" t="n">
         <v>-354.682454251884</v>
       </c>
       <c r="G3" t="n">
-        <v>333.438653882616</v>
+        <v>0.333438653882616</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4395524167557</v>
+        <v>0.0024395524167557</v>
       </c>
       <c r="I3" t="n">
-        <v>-865.266438451028</v>
+        <v>-0.865266438451028</v>
       </c>
       <c r="J3" t="n">
-        <v>-6922.13150760822</v>
+        <v>-6.92213150760822</v>
       </c>
       <c r="K3" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L3" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M3" t="n">
         <v>2.72345306647601</v>
@@ -5828,7 +5828,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P3" t="n">
         <v>1.81563537765067</v>
@@ -5851,28 +5851,28 @@
         <v>791.173304628633</v>
       </c>
       <c r="E4" t="n">
-        <v>4.11519728861141</v>
+        <v>0.00411519728861141</v>
       </c>
       <c r="F4" t="n">
         <v>159.669895945461</v>
       </c>
       <c r="G4" t="n">
-        <v>3255.83423802948</v>
+        <v>3.25583423802948</v>
       </c>
       <c r="H4" t="n">
-        <v>4.48600413148505</v>
+        <v>0.00448600413148505</v>
       </c>
       <c r="I4" t="n">
-        <v>716.279812885128</v>
+        <v>0.716279812885128</v>
       </c>
       <c r="J4" t="n">
-        <v>5730.23850308102</v>
+        <v>5.73023850308102</v>
       </c>
       <c r="K4" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L4" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M4" t="n">
         <v>2.72345306647601</v>
@@ -5881,7 +5881,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P4" t="n">
         <v>1.81563537765067</v>
@@ -5904,28 +5904,28 @@
         <v>631.503408683172</v>
       </c>
       <c r="E5" t="n">
-        <v>4.8568109743587</v>
+        <v>0.0048568109743587</v>
       </c>
       <c r="F5" t="n">
         <v>-17.2228202368138</v>
       </c>
       <c r="G5" t="n">
-        <v>3067.09268563736</v>
+        <v>3.06709268563736</v>
       </c>
       <c r="H5" t="n">
-        <v>9.07110676735713</v>
+        <v>0.00907110676735713</v>
       </c>
       <c r="I5" t="n">
-        <v>-156.230041203137</v>
+        <v>-0.156230041203137</v>
       </c>
       <c r="J5" t="n">
-        <v>-1249.8403296251</v>
+        <v>-1.2498403296251</v>
       </c>
       <c r="K5" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L5" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M5" t="n">
         <v>2.72345306647601</v>
@@ -5934,7 +5934,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P5" t="n">
         <v>1.81563537765067</v>
@@ -5957,28 +5957,28 @@
         <v>648.726228919986</v>
       </c>
       <c r="E6" t="n">
-        <v>13.2854025603556</v>
+        <v>0.0132854025603556</v>
       </c>
       <c r="F6" t="n">
         <v>616.43344097596</v>
       </c>
       <c r="G6" t="n">
-        <v>8618.58910266338</v>
+        <v>8.61858910266338</v>
       </c>
       <c r="H6" t="n">
-        <v>7.14204484799444</v>
+        <v>0.00714204484799445</v>
       </c>
       <c r="I6" t="n">
-        <v>4402.59528125384</v>
+        <v>4.40259528125384</v>
       </c>
       <c r="J6" t="n">
-        <v>35220.7622500307</v>
+        <v>35.2207622500307</v>
       </c>
       <c r="K6" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L6" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M6" t="n">
         <v>2.72345306647601</v>
@@ -5987,7 +5987,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P6" t="n">
         <v>1.81563537765067</v>
@@ -6010,28 +6010,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.998687135633333</v>
+        <v>0.000998687135633333</v>
       </c>
       <c r="F7" t="n">
         <v>-67.2766415500538</v>
       </c>
       <c r="G7" t="n">
-        <v>32.2503918934338</v>
+        <v>0.0322503918934338</v>
       </c>
       <c r="H7" t="n">
-        <v>3.12312172081667</v>
+        <v>0.00312312172081667</v>
       </c>
       <c r="I7" t="n">
-        <v>-210.11314052857</v>
+        <v>-0.21011314052857</v>
       </c>
       <c r="J7" t="n">
-        <v>-1680.90512422856</v>
+        <v>-1.68090512422856</v>
       </c>
       <c r="K7" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L7" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M7" t="n">
         <v>2.72345306647601</v>
@@ -6040,7 +6040,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P7" t="n">
         <v>1.81563537765067</v>
@@ -6063,28 +6063,28 @@
         <v>99.5694294940797</v>
       </c>
       <c r="E8" t="n">
-        <v>5.247556306</v>
+        <v>0.005247556306</v>
       </c>
       <c r="F8" t="n">
         <v>88.805166846071</v>
       </c>
       <c r="G8" t="n">
-        <v>522.49618762648</v>
+        <v>0.52249618762648</v>
       </c>
       <c r="H8" t="n">
-        <v>3.0302361605</v>
+        <v>0.0030302361605</v>
       </c>
       <c r="I8" t="n">
-        <v>269.1006278162</v>
+        <v>0.2691006278162</v>
       </c>
       <c r="J8" t="n">
-        <v>2152.8050225296</v>
+        <v>2.1528050225296</v>
       </c>
       <c r="K8" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L8" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M8" t="n">
         <v>2.72345306647601</v>
@@ -6093,7 +6093,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P8" t="n">
         <v>1.81563537765067</v>
@@ -6116,28 +6116,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.812916015</v>
+        <v>0.000812916015</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>8.75044149623251</v>
+        <v>0.00875044149623251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4064580075</v>
+        <v>0.0004064580075</v>
       </c>
       <c r="I9" t="n">
-        <v>4.37522074811625</v>
+        <v>0.00437522074811625</v>
       </c>
       <c r="J9" t="n">
-        <v>35.00176598493</v>
+        <v>0.03500176598493</v>
       </c>
       <c r="K9" t="n">
-        <v>15839.7470008343</v>
+        <v>15.8397470008343</v>
       </c>
       <c r="L9" t="n">
-        <v>43138.8075416263</v>
+        <v>43.1388075416263</v>
       </c>
       <c r="M9" t="n">
         <v>2.72345306647601</v>
@@ -6146,7 +6146,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>28759.2050277509</v>
+        <v>28.7592050277509</v>
       </c>
       <c r="P9" t="n">
         <v>1.81563537765067</v>
@@ -6236,28 +6236,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.502382501</v>
+        <v>0.000502382501</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>10.8155543810549</v>
+        <v>0.0108155543810549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2511912505</v>
+        <v>0.0002511912505</v>
       </c>
       <c r="I2" t="n">
-        <v>5.40777719052745</v>
+        <v>0.00540777719052745</v>
       </c>
       <c r="J2" t="n">
-        <v>5.40777719052745</v>
+        <v>0.00540777719052745</v>
       </c>
       <c r="K2" t="n">
-        <v>10.8155543810549</v>
+        <v>0.0108155543810549</v>
       </c>
       <c r="L2" t="n">
-        <v>5.40777719052745</v>
+        <v>0.00540777719052745</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6266,7 +6266,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.450648099210621</v>
+        <v>0.000450648099210621</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6356,28 +6356,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0083</v>
+        <v>0.0000083</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0893433799784715</v>
+        <v>0.0000893433799784715</v>
       </c>
       <c r="H2" t="n">
-        <v>0.179555746</v>
+        <v>0.000179555746</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.93278520990312</v>
+        <v>-0.00193278520990312</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.86557041980624</v>
+        <v>-0.00386557041980624</v>
       </c>
       <c r="K2" t="n">
-        <v>7.64179745963402</v>
+        <v>0.00764179745963402</v>
       </c>
       <c r="L2" t="n">
-        <v>7.55245407965554</v>
+        <v>0.00755245407965554</v>
       </c>
       <c r="M2" t="n">
         <v>0.988308590949916</v>
@@ -6386,7 +6386,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25874234660926</v>
+        <v>0.00125874234660926</v>
       </c>
       <c r="P2" t="n">
         <v>0.164718098491653</v>
@@ -6409,28 +6409,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.350811492</v>
+        <v>0.000350811492</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>7.55245407965554</v>
+        <v>0.00755245407965554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.175405746</v>
+        <v>0.000175405746</v>
       </c>
       <c r="I3" t="n">
-        <v>3.77622703982777</v>
+        <v>0.00377622703982777</v>
       </c>
       <c r="J3" t="n">
-        <v>7.55245407965554</v>
+        <v>0.00755245407965554</v>
       </c>
       <c r="K3" t="n">
-        <v>7.64179745963402</v>
+        <v>0.00764179745963402</v>
       </c>
       <c r="L3" t="n">
-        <v>7.55245407965554</v>
+        <v>0.00755245407965554</v>
       </c>
       <c r="M3" t="n">
         <v>0.988308590949916</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25874234660926</v>
+        <v>0.00125874234660926</v>
       </c>
       <c r="P3" t="n">
         <v>0.164718098491653</v>
@@ -6529,28 +6529,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.174148034</v>
+        <v>0.000174148034</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87457517761033</v>
+        <v>0.00187457517761033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.087074017</v>
+        <v>0.000087074017</v>
       </c>
       <c r="I2" t="n">
-        <v>0.937287588805167</v>
+        <v>0.000937287588805167</v>
       </c>
       <c r="J2" t="n">
-        <v>0.937287588805167</v>
+        <v>0.000937287588805167</v>
       </c>
       <c r="K2" t="n">
-        <v>1.87457517761033</v>
+        <v>0.00187457517761033</v>
       </c>
       <c r="L2" t="n">
-        <v>0.937287588805167</v>
+        <v>0.000937287588805167</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6559,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0781072990670972</v>
+        <v>0.0000781072990670972</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6649,16 +6649,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.035329018</v>
+        <v>0.000035329018</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.380290828848224</v>
+        <v>0.000380290828848224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.073764354</v>
+        <v>0.000073764354</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6667,10 +6667,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>30.0649944348762</v>
+        <v>0.0300649944348762</v>
       </c>
       <c r="L2" t="n">
-        <v>39.5381936921421</v>
+        <v>0.0395381936921421</v>
       </c>
       <c r="M2" t="n">
         <v>1.31509067057324</v>
@@ -6679,7 +6679,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>13.1793978973807</v>
+        <v>0.0131793978973807</v>
       </c>
       <c r="P2" t="n">
         <v>0.438363556857747</v>
@@ -6702,16 +6702,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11219969</v>
+        <v>0.00011219969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.20774693218515</v>
+        <v>0.00120774693218515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.460579934</v>
+        <v>0.000460579934</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -6720,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.0649944348762</v>
+        <v>0.0300649944348762</v>
       </c>
       <c r="L3" t="n">
-        <v>39.5381936921421</v>
+        <v>0.0395381936921421</v>
       </c>
       <c r="M3" t="n">
         <v>1.31509067057324</v>
@@ -6732,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>13.1793978973807</v>
+        <v>0.0131793978973807</v>
       </c>
       <c r="P3" t="n">
         <v>0.438363556857747</v>
@@ -6755,16 +6755,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.808960178</v>
+        <v>0.000808960178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.7078598277718</v>
+        <v>0.0087078598277718</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3227546375</v>
+        <v>0.0013227546375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.0649944348762</v>
+        <v>0.0300649944348762</v>
       </c>
       <c r="L4" t="n">
-        <v>39.5381936921421</v>
+        <v>0.0395381936921421</v>
       </c>
       <c r="M4" t="n">
         <v>1.31509067057324</v>
@@ -6785,7 +6785,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>13.1793978973807</v>
+        <v>0.0131793978973807</v>
       </c>
       <c r="P4" t="n">
         <v>0.438363556857747</v>
@@ -6808,28 +6808,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.836549097</v>
+        <v>0.001836549097</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>19.769096846071</v>
+        <v>0.019769096846071</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9182745485</v>
+        <v>0.0009182745485</v>
       </c>
       <c r="I5" t="n">
-        <v>9.88454842303552</v>
+        <v>0.00988454842303552</v>
       </c>
       <c r="J5" t="n">
-        <v>39.5381936921421</v>
+        <v>0.0395381936921421</v>
       </c>
       <c r="K5" t="n">
-        <v>30.0649944348762</v>
+        <v>0.0300649944348762</v>
       </c>
       <c r="L5" t="n">
-        <v>39.5381936921421</v>
+        <v>0.0395381936921421</v>
       </c>
       <c r="M5" t="n">
         <v>1.31509067057324</v>
@@ -6838,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>13.1793978973807</v>
+        <v>0.0131793978973807</v>
       </c>
       <c r="P5" t="n">
         <v>0.438363556857747</v>
@@ -6928,28 +6928,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0156</v>
+        <v>0.0000156</v>
       </c>
       <c r="F2" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.671689989235737</v>
+        <v>0.000671689989235737</v>
       </c>
       <c r="H2" t="n">
-        <v>0.095047148875</v>
+        <v>0.000095047148875</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.79044683026103</v>
+        <v>-0.00179044683026103</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.95223415130517</v>
+        <v>-0.00895223415130517</v>
       </c>
       <c r="K2" t="n">
-        <v>81.279508878319</v>
+        <v>0.081279508878319</v>
       </c>
       <c r="L2" t="n">
-        <v>189.297477857912</v>
+        <v>0.189297477857912</v>
       </c>
       <c r="M2" t="n">
         <v>2.32896926261332</v>
@@ -6958,7 +6958,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>78.8739491074632</v>
+        <v>0.0788739491074632</v>
       </c>
       <c r="P2" t="n">
         <v>0.970403859422219</v>
@@ -6981,28 +6981,28 @@
         <v>61.8945102260495</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17449429775</v>
+        <v>0.00017449429775</v>
       </c>
       <c r="F3" t="n">
         <v>-13.4553283100108</v>
       </c>
       <c r="G3" t="n">
-        <v>10.8002390964747</v>
+        <v>0.0108002390964747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.403002064141667</v>
+        <v>0.000403002064141667</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.42252508263814</v>
+        <v>-0.00542252508263814</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.1126254131907</v>
+        <v>-0.0271126254131907</v>
       </c>
       <c r="K3" t="n">
-        <v>81.279508878319</v>
+        <v>0.081279508878319</v>
       </c>
       <c r="L3" t="n">
-        <v>189.297477857912</v>
+        <v>0.189297477857912</v>
       </c>
       <c r="M3" t="n">
         <v>2.32896926261332</v>
@@ -7011,7 +7011,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>78.8739491074632</v>
+        <v>0.0788739491074632</v>
       </c>
       <c r="P3" t="n">
         <v>0.970403859422219</v>
@@ -7034,28 +7034,28 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E4" t="n">
-        <v>0.631509830533333</v>
+        <v>0.000631509830533333</v>
       </c>
       <c r="F4" t="n">
         <v>64.5855758880517</v>
       </c>
       <c r="G4" t="n">
-        <v>47.5841637646215</v>
+        <v>0.0475841637646215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.433822909766667</v>
+        <v>0.000433822909766667</v>
       </c>
       <c r="I4" t="n">
-        <v>28.0187024607104</v>
+        <v>0.0280187024607104</v>
       </c>
       <c r="J4" t="n">
-        <v>140.093512303552</v>
+        <v>0.140093512303552</v>
       </c>
       <c r="K4" t="n">
-        <v>81.279508878319</v>
+        <v>0.081279508878319</v>
       </c>
       <c r="L4" t="n">
-        <v>189.297477857912</v>
+        <v>0.189297477857912</v>
       </c>
       <c r="M4" t="n">
         <v>2.32896926261332</v>
@@ -7064,7 +7064,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>78.8739491074632</v>
+        <v>0.0788739491074632</v>
       </c>
       <c r="P4" t="n">
         <v>0.970403859422219</v>
@@ -7087,28 +7087,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.236135989</v>
+        <v>0.000236135989</v>
       </c>
       <c r="F5" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54182980624327</v>
+        <v>0.00254182980624327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5751728345</v>
+        <v>0.0005751728345</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.19131145855759</v>
+        <v>-0.00619131145855759</v>
       </c>
       <c r="J5" t="n">
-        <v>-30.956557292788</v>
+        <v>-0.0309565572927879</v>
       </c>
       <c r="K5" t="n">
-        <v>81.279508878319</v>
+        <v>0.081279508878319</v>
       </c>
       <c r="L5" t="n">
-        <v>189.297477857912</v>
+        <v>0.189297477857912</v>
       </c>
       <c r="M5" t="n">
         <v>2.32896926261332</v>
@@ -7117,7 +7117,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>78.8739491074632</v>
+        <v>0.0788739491074632</v>
       </c>
       <c r="P5" t="n">
         <v>0.970403859422219</v>
@@ -7140,28 +7140,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.91420968</v>
+        <v>0.00091420968</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>19.6815862217438</v>
+        <v>0.0196815862217438</v>
       </c>
       <c r="H6" t="n">
-        <v>0.45710484</v>
+        <v>0.00045710484</v>
       </c>
       <c r="I6" t="n">
-        <v>9.84079311087191</v>
+        <v>0.00984079311087191</v>
       </c>
       <c r="J6" t="n">
-        <v>49.2039655543595</v>
+        <v>0.0492039655543595</v>
       </c>
       <c r="K6" t="n">
-        <v>81.279508878319</v>
+        <v>0.081279508878319</v>
       </c>
       <c r="L6" t="n">
-        <v>189.297477857912</v>
+        <v>0.189297477857912</v>
       </c>
       <c r="M6" t="n">
         <v>2.32896926261332</v>
@@ -7170,7 +7170,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>78.8739491074632</v>
+        <v>0.0788739491074632</v>
       </c>
       <c r="P6" t="n">
         <v>0.970403859422219</v>
@@ -7260,28 +7260,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008</v>
+        <v>0.000008</v>
       </c>
       <c r="F2" t="n">
         <v>-124.8654467169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.344456404736276</v>
+        <v>0.000344456404736276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0766635407833333</v>
+        <v>0.0000766635407833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.57262726681019</v>
+        <v>-0.00957262726681019</v>
       </c>
       <c r="J2" t="n">
-        <v>-105.298899934912</v>
+        <v>-0.105298899934912</v>
       </c>
       <c r="K2" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L2" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M2" t="n">
         <v>3.86737347810258</v>
@@ -7290,10 +7290,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P2" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0775329374593305</v>
@@ -7313,28 +7313,28 @@
         <v>167.922497308934</v>
       </c>
       <c r="E3" t="n">
-        <v>0.145327081566667</v>
+        <v>0.000145327081566667</v>
       </c>
       <c r="F3" t="n">
         <v>-64.5855758880517</v>
       </c>
       <c r="G3" t="n">
-        <v>24.4036864632939</v>
+        <v>0.0244036864632939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.264853108973578</v>
+        <v>0.000264853108973578</v>
       </c>
       <c r="I3" t="n">
-        <v>-17.1056905687994</v>
+        <v>-0.0171056905687994</v>
       </c>
       <c r="J3" t="n">
-        <v>-188.162596256794</v>
+        <v>-0.188162596256794</v>
       </c>
       <c r="K3" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L3" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M3" t="n">
         <v>3.86737347810258</v>
@@ -7343,10 +7343,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P3" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0775329374593305</v>
@@ -7366,28 +7366,28 @@
         <v>232.508073196986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38437913638049</v>
+        <v>0.00038437913638049</v>
       </c>
       <c r="F4" t="n">
         <v>113.02475780409</v>
       </c>
       <c r="G4" t="n">
-        <v>89.3712523769491</v>
+        <v>0.0893712523769491</v>
       </c>
       <c r="H4" t="n">
-        <v>0.412304989035699</v>
+        <v>0.000412304989035699</v>
       </c>
       <c r="I4" t="n">
-        <v>46.6006715271781</v>
+        <v>0.0466006715271781</v>
       </c>
       <c r="J4" t="n">
-        <v>512.607386798959</v>
+        <v>0.512607386798959</v>
       </c>
       <c r="K4" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L4" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M4" t="n">
         <v>3.86737347810258</v>
@@ -7396,10 +7396,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P4" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0775329374593305</v>
@@ -7419,28 +7419,28 @@
         <v>119.483315392896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.440230841690909</v>
+        <v>0.000440230841690909</v>
       </c>
       <c r="F5" t="n">
         <v>-10.5848582705418</v>
       </c>
       <c r="G5" t="n">
-        <v>52.6002405034348</v>
+        <v>0.0526002405034348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.644025590645455</v>
+        <v>0.000644025590645455</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.8169195995841</v>
+        <v>-0.0068169195995841</v>
       </c>
       <c r="J5" t="n">
-        <v>-74.9861155954251</v>
+        <v>-0.0749861155954251</v>
       </c>
       <c r="K5" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L5" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M5" t="n">
         <v>3.86737347810258</v>
@@ -7449,10 +7449,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P5" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0775329374593305</v>
@@ -7472,28 +7472,28 @@
         <v>130.068173663437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8478203396</v>
+        <v>0.0008478203396</v>
       </c>
       <c r="F6" t="n">
         <v>68.1736634373879</v>
       </c>
       <c r="G6" t="n">
-        <v>110.274443166487</v>
+        <v>0.110274443166487</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7502129413</v>
+        <v>0.0007502129413</v>
       </c>
       <c r="I6" t="n">
-        <v>51.144764566559</v>
+        <v>0.051144764566559</v>
       </c>
       <c r="J6" t="n">
-        <v>562.592410232149</v>
+        <v>0.562592410232149</v>
       </c>
       <c r="K6" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L6" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M6" t="n">
         <v>3.86737347810258</v>
@@ -7502,10 +7502,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P6" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0775329374593305</v>
@@ -7525,28 +7525,28 @@
         <v>61.8945102260495</v>
       </c>
       <c r="E7" t="n">
-        <v>0.652605543</v>
+        <v>0.000652605543</v>
       </c>
       <c r="F7" t="n">
         <v>36.7778973806961</v>
       </c>
       <c r="G7" t="n">
-        <v>40.3927004547901</v>
+        <v>0.0403927004547901</v>
       </c>
       <c r="H7" t="n">
-        <v>0.513727878666667</v>
+        <v>0.000513727878666667</v>
       </c>
       <c r="I7" t="n">
-        <v>18.8938312032054</v>
+        <v>0.0188938312032054</v>
       </c>
       <c r="J7" t="n">
-        <v>207.832143235259</v>
+        <v>0.207832143235259</v>
       </c>
       <c r="K7" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L7" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M7" t="n">
         <v>3.86737347810258</v>
@@ -7555,10 +7555,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P7" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0775329374593305</v>
@@ -7578,16 +7578,16 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.374850214333333</v>
+        <v>0.000374850214333333</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.41496770840809</v>
+        <v>0.00941496770840809</v>
       </c>
       <c r="H8" t="n">
-        <v>0.440670536666667</v>
+        <v>0.000440670536666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7596,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L8" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M8" t="n">
         <v>3.86737347810258</v>
@@ -7608,10 +7608,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P8" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0775329374593305</v>
@@ -7631,28 +7631,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.506490859</v>
+        <v>0.000506490859</v>
       </c>
       <c r="F9" t="n">
         <v>8.97021887334051</v>
       </c>
       <c r="G9" t="n">
-        <v>12.7213348152135</v>
+        <v>0.0127213348152135</v>
       </c>
       <c r="H9" t="n">
-        <v>0.46554732675</v>
+        <v>0.00046554732675</v>
       </c>
       <c r="I9" t="n">
-        <v>4.17606141684607</v>
+        <v>0.00417606141684607</v>
       </c>
       <c r="J9" t="n">
-        <v>45.9366755853068</v>
+        <v>0.0459366755853068</v>
       </c>
       <c r="K9" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L9" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M9" t="n">
         <v>3.86737347810258</v>
@@ -7661,10 +7661,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P9" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0775329374593305</v>
@@ -7684,28 +7684,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4246037945</v>
+        <v>0.0004246037945</v>
       </c>
       <c r="F10" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G10" t="n">
-        <v>6.85582014800861</v>
+        <v>0.00685582014800861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57124862225</v>
+        <v>0.00057124862225</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.07453510360603</v>
+        <v>-0.00307453510360603</v>
       </c>
       <c r="J10" t="n">
-        <v>-33.8198861396663</v>
+        <v>-0.0338198861396663</v>
       </c>
       <c r="K10" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L10" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M10" t="n">
         <v>3.86737347810258</v>
@@ -7714,10 +7714,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P10" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0775329374593305</v>
@@ -7737,28 +7737,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E11" t="n">
-        <v>0.71789345</v>
+        <v>0.00071789345</v>
       </c>
       <c r="F11" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G11" t="n">
-        <v>15.4551872981701</v>
+        <v>0.0154551872981701</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0263992295</v>
+        <v>0.0010263992295</v>
       </c>
       <c r="I11" t="n">
-        <v>-11.0484308880517</v>
+        <v>-0.0110484308880517</v>
       </c>
       <c r="J11" t="n">
-        <v>-121.532739768568</v>
+        <v>-0.121532739768568</v>
       </c>
       <c r="K11" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L11" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M11" t="n">
         <v>3.86737347810258</v>
@@ -7767,10 +7767,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P11" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0775329374593305</v>
@@ -7790,28 +7790,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E12" t="n">
-        <v>1.334905009</v>
+        <v>0.001334905009</v>
       </c>
       <c r="F12" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G12" t="n">
-        <v>43.1078043810549</v>
+        <v>0.0431078043810549</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6674525045</v>
+        <v>0.0006674525045</v>
       </c>
       <c r="I12" t="n">
-        <v>21.5539021905274</v>
+        <v>0.0215539021905275</v>
       </c>
       <c r="J12" t="n">
-        <v>237.092924095802</v>
+        <v>0.237092924095802</v>
       </c>
       <c r="K12" t="n">
-        <v>404.941893720547</v>
+        <v>0.404941893720547</v>
       </c>
       <c r="L12" t="n">
-        <v>1566.06153994748</v>
+        <v>1.56606153994748</v>
       </c>
       <c r="M12" t="n">
         <v>3.86737347810258</v>
@@ -7820,10 +7820,10 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>1435.55641161852</v>
+        <v>1.43555641161852</v>
       </c>
       <c r="P12" t="n">
-        <v>3.54509235492737</v>
+        <v>3.54509235492736</v>
       </c>
       <c r="Q12" t="n">
         <v>0.0775329374593305</v>
@@ -7910,16 +7910,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00661926085</v>
+        <v>0.00000661926085</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0712514623250807</v>
+        <v>0.0000712514623250807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.034405911025</v>
+        <v>0.000034405911025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -7928,10 +7928,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L2" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M2" t="n">
         <v>1.57886746204589</v>
@@ -7940,7 +7940,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P2" t="n">
         <v>1.44729517354207</v>
@@ -7963,16 +7963,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0621925612</v>
+        <v>0.0000621925612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66945706350915</v>
+        <v>0.00066945706350915</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14639789705</v>
+        <v>0.00014639789705</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L3" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M3" t="n">
         <v>1.57886746204589</v>
@@ -7993,7 +7993,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P3" t="n">
         <v>1.44729517354207</v>
@@ -8016,16 +8016,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2306032329</v>
+        <v>0.0002306032329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4822737664155</v>
+        <v>0.0024822737664155</v>
       </c>
       <c r="H4" t="n">
-        <v>0.40747280855</v>
+        <v>0.00040747280855</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L4" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M4" t="n">
         <v>1.57886746204589</v>
@@ -8046,7 +8046,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P4" t="n">
         <v>1.44729517354207</v>
@@ -8069,16 +8069,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5843423842</v>
+        <v>0.0005843423842</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.29001489989236</v>
+        <v>0.00629001489989236</v>
       </c>
       <c r="H5" t="n">
-        <v>0.67060377325</v>
+        <v>0.00067060377325</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L5" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M5" t="n">
         <v>1.57886746204589</v>
@@ -8099,7 +8099,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P5" t="n">
         <v>1.44729517354207</v>
@@ -8122,16 +8122,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7568651623</v>
+        <v>0.0007568651623</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.14709539612487</v>
+        <v>0.00814709539612487</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8592823555</v>
+        <v>0.0008592823555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L6" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M6" t="n">
         <v>1.57886746204589</v>
@@ -8152,7 +8152,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P6" t="n">
         <v>1.44729517354207</v>
@@ -8175,16 +8175,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9616995487</v>
+        <v>0.0009616995487</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.3519865306782</v>
+        <v>0.0103519865306781</v>
       </c>
       <c r="H7" t="n">
-        <v>1.08181667685</v>
+        <v>0.00108181667685</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8193,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L7" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M7" t="n">
         <v>1.57886746204589</v>
@@ -8205,7 +8205,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P7" t="n">
         <v>1.44729517354207</v>
@@ -8228,16 +8228,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.201933805</v>
+        <v>0.001201933805</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9379311625404</v>
+        <v>0.0129379311625404</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6843058125</v>
+        <v>0.0016843058125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8246,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L8" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M8" t="n">
         <v>1.57886746204589</v>
@@ -8258,7 +8258,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P8" t="n">
         <v>1.44729517354207</v>
@@ -8281,16 +8281,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>2.16667782</v>
+        <v>0.00216667782</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.3226891280947</v>
+        <v>0.0233226891280947</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3735335805</v>
+        <v>0.0023735335805</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8299,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L9" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M9" t="n">
         <v>1.57886746204589</v>
@@ -8311,7 +8311,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P9" t="n">
         <v>1.44729517354207</v>
@@ -8334,16 +8334,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>2.580389341</v>
+        <v>0.002580389341</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.7759886006459</v>
+        <v>0.0277759886006459</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4424780658</v>
+        <v>0.0014424780658</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L10" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M10" t="n">
         <v>1.57886746204589</v>
@@ -8364,7 +8364,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P10" t="n">
         <v>1.44729517354207</v>
@@ -8387,16 +8387,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3045667906</v>
+        <v>0.0003045667906</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.27843692787944</v>
+        <v>0.00327843692787944</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9352219068</v>
+        <v>0.0019352219068</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8405,10 +8405,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L11" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M11" t="n">
         <v>1.57886746204589</v>
@@ -8417,7 +8417,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P11" t="n">
         <v>1.44729517354207</v>
@@ -8440,28 +8440,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>3.565877023</v>
+        <v>0.003565877023</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>38.384036846071</v>
+        <v>0.038384036846071</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7829385115</v>
+        <v>0.0017829385115</v>
       </c>
       <c r="I12" t="n">
-        <v>19.1920184230355</v>
+        <v>0.0191920184230355</v>
       </c>
       <c r="J12" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="K12" t="n">
-        <v>133.711161784177</v>
+        <v>0.133711161784177</v>
       </c>
       <c r="L12" t="n">
-        <v>211.112202653391</v>
+        <v>0.211112202653391</v>
       </c>
       <c r="M12" t="n">
         <v>1.57886746204589</v>
@@ -8470,7 +8470,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>193.519519098942</v>
+        <v>0.193519519098942</v>
       </c>
       <c r="P12" t="n">
         <v>1.44729517354207</v>
@@ -8560,28 +8560,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0138</v>
+        <v>0.0000138</v>
       </c>
       <c r="F2" t="n">
         <v>-112.665949049157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.148546824542519</v>
+        <v>0.000148546824542519</v>
       </c>
       <c r="H2" t="n">
-        <v>0.439588530955556</v>
+        <v>0.000439588530955556</v>
       </c>
       <c r="I2" t="n">
-        <v>-49.5266590312323</v>
+        <v>-0.0495266590312323</v>
       </c>
       <c r="J2" t="n">
-        <v>-198.106636124929</v>
+        <v>-0.198106636124929</v>
       </c>
       <c r="K2" t="n">
-        <v>1056.43066985505</v>
+        <v>1.05643066985505</v>
       </c>
       <c r="L2" t="n">
-        <v>2038.7549710025</v>
+        <v>2.0387549710025</v>
       </c>
       <c r="M2" t="n">
         <v>1.92985212298147</v>
@@ -8590,7 +8590,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>679.584990334167</v>
+        <v>0.679584990334167</v>
       </c>
       <c r="P2" t="n">
         <v>0.643284040993824</v>
@@ -8613,28 +8613,28 @@
         <v>123.430211697165</v>
       </c>
       <c r="E3" t="n">
-        <v>0.865377061911111</v>
+        <v>0.000865377061911111</v>
       </c>
       <c r="F3" t="n">
         <v>-79.6555435952637</v>
       </c>
       <c r="G3" t="n">
-        <v>106.813673949559</v>
+        <v>0.106813673949559</v>
       </c>
       <c r="H3" t="n">
-        <v>2.33529652837746</v>
+        <v>0.00233529652837746</v>
       </c>
       <c r="I3" t="n">
-        <v>-186.019314424039</v>
+        <v>-0.186019314424039</v>
       </c>
       <c r="J3" t="n">
-        <v>-744.077257696155</v>
+        <v>-0.744077257696155</v>
       </c>
       <c r="K3" t="n">
-        <v>1056.43066985505</v>
+        <v>1.05643066985505</v>
       </c>
       <c r="L3" t="n">
-        <v>2038.7549710025</v>
+        <v>2.0387549710025</v>
       </c>
       <c r="M3" t="n">
         <v>1.92985212298147</v>
@@ -8643,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>679.584990334167</v>
+        <v>0.679584990334167</v>
       </c>
       <c r="P3" t="n">
         <v>0.643284040993824</v>
@@ -8666,28 +8666,28 @@
         <v>203.085755292429</v>
       </c>
       <c r="E4" t="n">
-        <v>3.80521599484381</v>
+        <v>0.00380521599484381</v>
       </c>
       <c r="F4" t="n">
         <v>133.118048080373</v>
       </c>
       <c r="G4" t="n">
-        <v>772.785164363687</v>
+        <v>0.772785164363687</v>
       </c>
       <c r="H4" t="n">
-        <v>3.16521393205524</v>
+        <v>0.00316521393205524</v>
       </c>
       <c r="I4" t="n">
-        <v>421.347100391996</v>
+        <v>0.421347100391996</v>
       </c>
       <c r="J4" t="n">
-        <v>1685.38840156798</v>
+        <v>1.68538840156798</v>
       </c>
       <c r="K4" t="n">
-        <v>1056.43066985505</v>
+        <v>1.05643066985505</v>
       </c>
       <c r="L4" t="n">
-        <v>2038.7549710025</v>
+        <v>2.0387549710025</v>
       </c>
       <c r="M4" t="n">
         <v>1.92985212298147</v>
@@ -8696,7 +8696,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>679.584990334167</v>
+        <v>0.679584990334167</v>
       </c>
       <c r="P4" t="n">
         <v>0.643284040993824</v>
@@ -8719,28 +8719,28 @@
         <v>69.967707212056</v>
       </c>
       <c r="E5" t="n">
-        <v>2.52521186926667</v>
+        <v>0.00252521186926667</v>
       </c>
       <c r="F5" t="n">
         <v>69.967707212056</v>
       </c>
       <c r="G5" t="n">
-        <v>176.683284717259</v>
+        <v>0.176683284717259</v>
       </c>
       <c r="H5" t="n">
-        <v>1.26260593463333</v>
+        <v>0.00126260593463333</v>
       </c>
       <c r="I5" t="n">
-        <v>88.3416423586293</v>
+        <v>0.0883416423586293</v>
       </c>
       <c r="J5" t="n">
-        <v>353.366569434517</v>
+        <v>0.353366569434517</v>
       </c>
       <c r="K5" t="n">
-        <v>1056.43066985505</v>
+        <v>1.05643066985505</v>
       </c>
       <c r="L5" t="n">
-        <v>2038.7549710025</v>
+        <v>2.0387549710025</v>
       </c>
       <c r="M5" t="n">
         <v>1.92985212298147</v>
@@ -8749,7 +8749,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>679.584990334167</v>
+        <v>0.679584990334167</v>
       </c>
       <c r="P5" t="n">
         <v>0.643284040993824</v>
@@ -8839,28 +8839,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00866666666666667</v>
+        <v>0.00000866666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-29.0635091496233</v>
       </c>
       <c r="G2" t="n">
-        <v>0.233225690706853</v>
+        <v>0.000233225690706853</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0559095435333333</v>
+        <v>0.0000559095435333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.62492753003229</v>
+        <v>-0.00162492753003229</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.12463765016146</v>
+        <v>-0.00812463765016147</v>
       </c>
       <c r="K2" t="n">
-        <v>18.8437023438823</v>
+        <v>0.0188437023438823</v>
       </c>
       <c r="L2" t="n">
-        <v>52.606831153929</v>
+        <v>0.052606831153929</v>
       </c>
       <c r="M2" t="n">
         <v>2.79174602707562</v>
@@ -8869,7 +8869,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>21.9195129808037</v>
+        <v>0.0219195129808037</v>
       </c>
       <c r="P2" t="n">
         <v>1.16322751128151</v>
@@ -8892,28 +8892,28 @@
         <v>55.9741657696448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1031524204</v>
+        <v>0.0001031524204</v>
       </c>
       <c r="F3" t="n">
         <v>34.4456404736276</v>
       </c>
       <c r="G3" t="n">
-        <v>5.77387067900969</v>
+        <v>0.00577387067900969</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1028008962</v>
+        <v>0.0001028008962</v>
       </c>
       <c r="I3" t="n">
-        <v>3.54104271087191</v>
+        <v>0.00354104271087191</v>
       </c>
       <c r="J3" t="n">
-        <v>17.7052135543595</v>
+        <v>0.0177052135543595</v>
       </c>
       <c r="K3" t="n">
-        <v>18.8437023438823</v>
+        <v>0.0188437023438823</v>
       </c>
       <c r="L3" t="n">
-        <v>52.606831153929</v>
+        <v>0.052606831153929</v>
       </c>
       <c r="M3" t="n">
         <v>2.79174602707562</v>
@@ -8922,7 +8922,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>21.9195129808037</v>
+        <v>0.0219195129808037</v>
       </c>
       <c r="P3" t="n">
         <v>1.16322751128151</v>
@@ -8945,28 +8945,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.102449372</v>
+        <v>0.000102449372</v>
       </c>
       <c r="F4" t="n">
         <v>5.3821313240043</v>
       </c>
       <c r="G4" t="n">
-        <v>2.20558389666308</v>
+        <v>0.00220558389666308</v>
       </c>
       <c r="H4" t="n">
-        <v>0.145510087</v>
+        <v>0.000145510087</v>
       </c>
       <c r="I4" t="n">
-        <v>0.783154397201291</v>
+        <v>0.000783154397201291</v>
       </c>
       <c r="J4" t="n">
-        <v>3.91577198600646</v>
+        <v>0.00391577198600646</v>
       </c>
       <c r="K4" t="n">
-        <v>18.8437023438823</v>
+        <v>0.0188437023438823</v>
       </c>
       <c r="L4" t="n">
-        <v>52.606831153929</v>
+        <v>0.052606831153929</v>
       </c>
       <c r="M4" t="n">
         <v>2.79174602707562</v>
@@ -8975,7 +8975,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>21.9195129808037</v>
+        <v>0.0219195129808037</v>
       </c>
       <c r="P4" t="n">
         <v>1.16322751128151</v>
@@ -8998,28 +8998,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.188570802</v>
+        <v>0.000188570802</v>
       </c>
       <c r="F5" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>3.04473846071044</v>
+        <v>0.00304473846071044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.446668275</v>
+        <v>0.000446668275</v>
       </c>
       <c r="I5" t="n">
-        <v>2.40402731431647</v>
+        <v>0.00240402731431647</v>
       </c>
       <c r="J5" t="n">
-        <v>12.0201365715823</v>
+        <v>0.0120201365715823</v>
       </c>
       <c r="K5" t="n">
-        <v>18.8437023438823</v>
+        <v>0.0188437023438823</v>
       </c>
       <c r="L5" t="n">
-        <v>52.606831153929</v>
+        <v>0.052606831153929</v>
       </c>
       <c r="M5" t="n">
         <v>2.79174602707562</v>
@@ -9028,7 +9028,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>21.9195129808037</v>
+        <v>0.0219195129808037</v>
       </c>
       <c r="P5" t="n">
         <v>1.16322751128151</v>
@@ -9051,28 +9051,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.704765748</v>
+        <v>0.000704765748</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>7.58628361679225</v>
+        <v>0.00758628361679225</v>
       </c>
       <c r="H6" t="n">
-        <v>0.352382874</v>
+        <v>0.000352382874</v>
       </c>
       <c r="I6" t="n">
-        <v>3.79314180839613</v>
+        <v>0.00379314180839613</v>
       </c>
       <c r="J6" t="n">
-        <v>18.9657090419806</v>
+        <v>0.0189657090419806</v>
       </c>
       <c r="K6" t="n">
-        <v>18.8437023438823</v>
+        <v>0.0188437023438823</v>
       </c>
       <c r="L6" t="n">
-        <v>52.606831153929</v>
+        <v>0.052606831153929</v>
       </c>
       <c r="M6" t="n">
         <v>2.79174602707562</v>
@@ -9081,7 +9081,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>21.9195129808037</v>
+        <v>0.0219195129808037</v>
       </c>
       <c r="P6" t="n">
         <v>1.16322751128151</v>
@@ -9171,28 +9171,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0550637635</v>
+        <v>0.0000550637635</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18544162540366</v>
+        <v>0.00118544162540366</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02753188175</v>
+        <v>0.00002753188175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.59272081270183</v>
+        <v>0.00059272081270183</v>
       </c>
       <c r="J2" t="n">
-        <v>0.59272081270183</v>
+        <v>0.00059272081270183</v>
       </c>
       <c r="K2" t="n">
-        <v>1.18544162540366</v>
+        <v>0.00118544162540366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.59272081270183</v>
+        <v>0.00059272081270183</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9201,7 +9201,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0493934010584858</v>
+        <v>0.0000493934010584858</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9291,16 +9291,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02398014091</v>
+        <v>0.00002398014091</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.258128535091496</v>
+        <v>0.000258128535091496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.035850331625</v>
+        <v>0.000035850331625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9309,10 +9309,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.771804771259419</v>
+        <v>0.000771804771259419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.513676236167923</v>
+        <v>0.000513676236167923</v>
       </c>
       <c r="M2" t="n">
         <v>0.665552035043414</v>
@@ -9321,7 +9321,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0856127060279871</v>
+        <v>0.0000856127060279871</v>
       </c>
       <c r="P2" t="n">
         <v>0.110925339173902</v>
@@ -9344,28 +9344,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04772052234</v>
+        <v>0.00004772052234</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.513676236167923</v>
+        <v>0.000513676236167923</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02386026117</v>
+        <v>0.00002386026117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.256838118083961</v>
+        <v>0.000256838118083961</v>
       </c>
       <c r="J3" t="n">
-        <v>0.513676236167923</v>
+        <v>0.000513676236167923</v>
       </c>
       <c r="K3" t="n">
-        <v>0.771804771259419</v>
+        <v>0.000771804771259419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.513676236167923</v>
+        <v>0.000513676236167923</v>
       </c>
       <c r="M3" t="n">
         <v>0.665552035043414</v>
@@ -9374,7 +9374,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0856127060279871</v>
+        <v>0.0000856127060279871</v>
       </c>
       <c r="P3" t="n">
         <v>0.110925339173902</v>
@@ -9464,28 +9464,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0012</v>
+        <v>0.0000012</v>
       </c>
       <c r="F2" t="n">
         <v>-20.81090778615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0129171151776103</v>
+        <v>0.0000129171151776103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0166619531333333</v>
+        <v>0.0000166619531333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.346750370194953</v>
+        <v>-0.000346750370194953</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.73375185097476</v>
+        <v>-0.00173375185097476</v>
       </c>
       <c r="K2" t="n">
-        <v>18.5707239151298</v>
+        <v>0.0185707239151298</v>
       </c>
       <c r="L2" t="n">
-        <v>59.1839529153211</v>
+        <v>0.0591839529153211</v>
       </c>
       <c r="M2" t="n">
         <v>3.18694915641405</v>
@@ -9494,7 +9494,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>24.6599803813838</v>
+        <v>0.0246599803813838</v>
       </c>
       <c r="P2" t="n">
         <v>1.32789548183919</v>
@@ -9517,28 +9517,28 @@
         <v>31.5751704341586</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0321239062666667</v>
+        <v>0.0000321239062666667</v>
       </c>
       <c r="F3" t="n">
         <v>-15.069967707212</v>
       </c>
       <c r="G3" t="n">
-        <v>1.01431781538094</v>
+        <v>0.00101431781538094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0892498866333333</v>
+        <v>0.0000892498866333333</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.34499290943667</v>
+        <v>-0.00134499290943667</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.72496454718335</v>
+        <v>-0.00672496454718335</v>
       </c>
       <c r="K3" t="n">
-        <v>18.5707239151298</v>
+        <v>0.0185707239151298</v>
       </c>
       <c r="L3" t="n">
-        <v>59.1839529153211</v>
+        <v>0.0591839529153211</v>
       </c>
       <c r="M3" t="n">
         <v>3.18694915641405</v>
@@ -9547,7 +9547,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>24.6599803813838</v>
+        <v>0.0246599803813838</v>
       </c>
       <c r="P3" t="n">
         <v>1.32789548183919</v>
@@ -9570,28 +9570,28 @@
         <v>46.6451381413707</v>
       </c>
       <c r="E4" t="n">
-        <v>0.146375867</v>
+        <v>0.000146375867</v>
       </c>
       <c r="F4" t="n">
         <v>25.1166128453534</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8277225367779</v>
+        <v>0.0068277225367779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1731309875</v>
+        <v>0.0001731309875</v>
       </c>
       <c r="I4" t="n">
-        <v>4.34846398457122</v>
+        <v>0.00434846398457122</v>
       </c>
       <c r="J4" t="n">
-        <v>21.7423199228561</v>
+        <v>0.0217423199228561</v>
       </c>
       <c r="K4" t="n">
-        <v>18.5707239151298</v>
+        <v>0.0185707239151298</v>
       </c>
       <c r="L4" t="n">
-        <v>59.1839529153211</v>
+        <v>0.0591839529153211</v>
       </c>
       <c r="M4" t="n">
         <v>3.18694915641405</v>
@@ -9600,7 +9600,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>24.6599803813838</v>
+        <v>0.0246599803813838</v>
       </c>
       <c r="P4" t="n">
         <v>1.32789548183919</v>
@@ -9623,28 +9623,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.199886108</v>
+        <v>0.000199886108</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>4.30325313240043</v>
+        <v>0.00430325313240043</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3978042975</v>
+        <v>0.0003978042975</v>
       </c>
       <c r="I5" t="n">
-        <v>4.28206994079656</v>
+        <v>0.00428206994079656</v>
       </c>
       <c r="J5" t="n">
-        <v>21.4103497039828</v>
+        <v>0.0214103497039828</v>
       </c>
       <c r="K5" t="n">
-        <v>18.5707239151298</v>
+        <v>0.0185707239151298</v>
       </c>
       <c r="L5" t="n">
-        <v>59.1839529153211</v>
+        <v>0.0591839529153211</v>
       </c>
       <c r="M5" t="n">
         <v>3.18694915641405</v>
@@ -9653,7 +9653,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>24.6599803813838</v>
+        <v>0.0246599803813838</v>
       </c>
       <c r="P5" t="n">
         <v>1.32789548183919</v>
@@ -9676,28 +9676,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.595722487</v>
+        <v>0.000595722487</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>6.4125133153929</v>
+        <v>0.0064125133153929</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2978612435</v>
+        <v>0.0002978612435</v>
       </c>
       <c r="I6" t="n">
-        <v>3.20625665769645</v>
+        <v>0.00320625665769645</v>
       </c>
       <c r="J6" t="n">
-        <v>16.0312832884822</v>
+        <v>0.0160312832884822</v>
       </c>
       <c r="K6" t="n">
-        <v>18.5707239151298</v>
+        <v>0.0185707239151298</v>
       </c>
       <c r="L6" t="n">
-        <v>59.1839529153211</v>
+        <v>0.0591839529153211</v>
       </c>
       <c r="M6" t="n">
         <v>3.18694915641405</v>
@@ -9706,7 +9706,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>24.6599803813838</v>
+        <v>0.0246599803813838</v>
       </c>
       <c r="P6" t="n">
         <v>1.32789548183919</v>
@@ -9796,28 +9796,28 @@
         <v>24.2195909580194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.387996744458333</v>
+        <v>0.000387996744458333</v>
       </c>
       <c r="F2" t="n">
         <v>-26.0136347326875</v>
       </c>
       <c r="G2" t="n">
-        <v>9.397122443824</v>
+        <v>0.00939712244382401</v>
       </c>
       <c r="H2" t="n">
-        <v>0.976850848979167</v>
+        <v>0.000976850848979167</v>
       </c>
       <c r="I2" t="n">
-        <v>-25.4114411736597</v>
+        <v>-0.0254114411736597</v>
       </c>
       <c r="J2" t="n">
-        <v>-127.057205868298</v>
+        <v>-0.127057205868298</v>
       </c>
       <c r="K2" t="n">
-        <v>707.730897811379</v>
+        <v>0.707730897811379</v>
       </c>
       <c r="L2" t="n">
-        <v>1637.50291373957</v>
+        <v>1.63750291373957</v>
       </c>
       <c r="M2" t="n">
         <v>2.31373664595324</v>
@@ -9826,7 +9826,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>682.292880724822</v>
+        <v>0.682292880724822</v>
       </c>
       <c r="P2" t="n">
         <v>0.964056935813849</v>
@@ -9849,28 +9849,28 @@
         <v>50.2332256907069</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5657049535</v>
+        <v>0.0015657049535</v>
       </c>
       <c r="F3" t="n">
         <v>-46.6451381413707</v>
       </c>
       <c r="G3" t="n">
-        <v>78.6504102942232</v>
+        <v>0.0786504102942232</v>
       </c>
       <c r="H3" t="n">
-        <v>3.552646319625</v>
+        <v>0.003552646319625</v>
       </c>
       <c r="I3" t="n">
-        <v>-165.71367834634</v>
+        <v>-0.16571367834634</v>
       </c>
       <c r="J3" t="n">
-        <v>-828.568391731701</v>
+        <v>-0.828568391731701</v>
       </c>
       <c r="K3" t="n">
-        <v>707.730897811379</v>
+        <v>0.707730897811379</v>
       </c>
       <c r="L3" t="n">
-        <v>1637.50291373957</v>
+        <v>1.63750291373957</v>
       </c>
       <c r="M3" t="n">
         <v>2.31373664595324</v>
@@ -9879,7 +9879,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>682.292880724822</v>
+        <v>0.682292880724822</v>
       </c>
       <c r="P3" t="n">
         <v>0.964056935813849</v>
@@ -9902,28 +9902,28 @@
         <v>96.8783638320775</v>
       </c>
       <c r="E4" t="n">
-        <v>5.53958768575</v>
+        <v>0.00553958768575</v>
       </c>
       <c r="F4" t="n">
         <v>72.6587728740581</v>
       </c>
       <c r="G4" t="n">
-        <v>536.666191299785</v>
+        <v>0.536666191299785</v>
       </c>
       <c r="H4" t="n">
-        <v>3.808896251</v>
+        <v>0.003808896251</v>
       </c>
       <c r="I4" t="n">
-        <v>276.749727602261</v>
+        <v>0.276749727602261</v>
       </c>
       <c r="J4" t="n">
-        <v>1383.7486380113</v>
+        <v>1.3837486380113</v>
       </c>
       <c r="K4" t="n">
-        <v>707.730897811379</v>
+        <v>0.707730897811379</v>
       </c>
       <c r="L4" t="n">
-        <v>1637.50291373957</v>
+        <v>1.63750291373957</v>
       </c>
       <c r="M4" t="n">
         <v>2.31373664595324</v>
@@ -9932,7 +9932,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>682.292880724822</v>
+        <v>0.682292880724822</v>
       </c>
       <c r="P4" t="n">
         <v>0.964056935813849</v>
@@ -9955,28 +9955,28 @@
         <v>24.2195909580194</v>
       </c>
       <c r="E5" t="n">
-        <v>2.07820481625</v>
+        <v>0.00207820481625</v>
       </c>
       <c r="F5" t="n">
         <v>13.4553283100108</v>
       </c>
       <c r="G5" t="n">
-        <v>50.3332705765608</v>
+        <v>0.0503332705765608</v>
       </c>
       <c r="H5" t="n">
-        <v>2.557269711625</v>
+        <v>0.002557269711625</v>
       </c>
       <c r="I5" t="n">
-        <v>34.4089035471609</v>
+        <v>0.0344089035471609</v>
       </c>
       <c r="J5" t="n">
-        <v>172.044517735805</v>
+        <v>0.172044517735805</v>
       </c>
       <c r="K5" t="n">
-        <v>707.730897811379</v>
+        <v>0.707730897811379</v>
       </c>
       <c r="L5" t="n">
-        <v>1637.50291373957</v>
+        <v>1.63750291373957</v>
       </c>
       <c r="M5" t="n">
         <v>2.31373664595324</v>
@@ -9985,7 +9985,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>682.292880724822</v>
+        <v>0.682292880724822</v>
       </c>
       <c r="P5" t="n">
         <v>0.964056935813849</v>
@@ -10008,28 +10008,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>3.036334607</v>
+        <v>0.003036334607</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>32.683903196986</v>
+        <v>0.032683903196986</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5181673035</v>
+        <v>0.0015181673035</v>
       </c>
       <c r="I6" t="n">
-        <v>16.341951598493</v>
+        <v>0.016341951598493</v>
       </c>
       <c r="J6" t="n">
-        <v>81.709757992465</v>
+        <v>0.081709757992465</v>
       </c>
       <c r="K6" t="n">
-        <v>707.730897811379</v>
+        <v>0.707730897811379</v>
       </c>
       <c r="L6" t="n">
-        <v>1637.50291373957</v>
+        <v>1.63750291373957</v>
       </c>
       <c r="M6" t="n">
         <v>2.31373664595324</v>
@@ -10038,7 +10038,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>682.292880724822</v>
+        <v>0.682292880724822</v>
       </c>
       <c r="P6" t="n">
         <v>0.964056935813849</v>
@@ -10128,28 +10128,28 @@
         <v>101.184068891281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07238</v>
+        <v>0.00007238</v>
       </c>
       <c r="F2" t="n">
         <v>59.9210620739146</v>
       </c>
       <c r="G2" t="n">
-        <v>7.32370290635092</v>
+        <v>0.00732370290635091</v>
       </c>
       <c r="H2" t="n">
-        <v>0.145059641333333</v>
+        <v>0.000145059641333333</v>
       </c>
       <c r="I2" t="n">
-        <v>8.69212777275446</v>
+        <v>0.00869212777275446</v>
       </c>
       <c r="J2" t="n">
-        <v>69.5370221820356</v>
+        <v>0.0695370221820356</v>
       </c>
       <c r="K2" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L2" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M2" t="n">
         <v>2.84403075744667</v>
@@ -10158,7 +10158,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P2" t="n">
         <v>1.89602050496445</v>
@@ -10181,28 +10181,28 @@
         <v>41.2630068173664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.217739282666667</v>
+        <v>0.000217739282666667</v>
       </c>
       <c r="F3" t="n">
         <v>19.7344815213491</v>
       </c>
       <c r="G3" t="n">
-        <v>8.98457750508313</v>
+        <v>0.00898457750508313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.291692839833333</v>
+        <v>0.000291692839833333</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75640695760077</v>
+        <v>0.00575640695760077</v>
       </c>
       <c r="J3" t="n">
-        <v>46.0512556608061</v>
+        <v>0.0460512556608061</v>
       </c>
       <c r="K3" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L3" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M3" t="n">
         <v>2.84403075744667</v>
@@ -10211,7 +10211,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P3" t="n">
         <v>1.89602050496445</v>
@@ -10234,16 +10234,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.365646397</v>
+        <v>0.000365646397</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.87182770721206</v>
+        <v>0.00787182770721206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6018383045</v>
+        <v>0.0006018383045</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L4" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M4" t="n">
         <v>2.84403075744667</v>
@@ -10264,7 +10264,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P4" t="n">
         <v>1.89602050496445</v>
@@ -10287,28 +10287,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.838030212</v>
+        <v>0.000838030212</v>
       </c>
       <c r="F5" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>18.0415546178687</v>
+        <v>0.0180415546178687</v>
       </c>
       <c r="H5" t="n">
-        <v>1.016989395</v>
+        <v>0.001016989395</v>
       </c>
       <c r="I5" t="n">
-        <v>5.47357047900969</v>
+        <v>0.00547357047900969</v>
       </c>
       <c r="J5" t="n">
-        <v>43.7885638320775</v>
+        <v>0.0437885638320775</v>
       </c>
       <c r="K5" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L5" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M5" t="n">
         <v>2.84403075744667</v>
@@ -10317,7 +10317,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P5" t="n">
         <v>1.89602050496445</v>
@@ -10340,28 +10340,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E6" t="n">
-        <v>1.195948578</v>
+        <v>0.001195948578</v>
       </c>
       <c r="F6" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G6" t="n">
-        <v>19.3102569106566</v>
+        <v>0.0193102569106566</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9466290195</v>
+        <v>0.0019466290195</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.4770130220667</v>
+        <v>-0.0104770130220667</v>
       </c>
       <c r="J6" t="n">
-        <v>-83.8161041765339</v>
+        <v>-0.0838161041765339</v>
       </c>
       <c r="K6" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L6" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M6" t="n">
         <v>2.84403075744667</v>
@@ -10370,7 +10370,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P6" t="n">
         <v>1.89602050496445</v>
@@ -10393,28 +10393,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>2.697309461</v>
+        <v>0.002697309461</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>58.0690949623251</v>
+        <v>0.0580690949623251</v>
       </c>
       <c r="H7" t="n">
-        <v>2.400322051</v>
+        <v>0.002400322051</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8376969967707</v>
+        <v>0.0258376969967707</v>
       </c>
       <c r="J7" t="n">
-        <v>206.701575974166</v>
+        <v>0.206701575974166</v>
       </c>
       <c r="K7" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L7" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M7" t="n">
         <v>2.84403075744667</v>
@@ -10423,7 +10423,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P7" t="n">
         <v>1.89602050496445</v>
@@ -10446,16 +10446,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>2.103334641</v>
+        <v>0.002103334641</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.6408465123789</v>
+        <v>0.0226408465123789</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5971678635</v>
+        <v>0.0025971678635</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -10464,10 +10464,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L8" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M8" t="n">
         <v>2.84403075744667</v>
@@ -10476,7 +10476,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P8" t="n">
         <v>1.89602050496445</v>
@@ -10499,28 +10499,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>3.091001086</v>
+        <v>0.003091001086</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>33.2723475349839</v>
+        <v>0.0332723475349839</v>
       </c>
       <c r="H9" t="n">
-        <v>1.545500543</v>
+        <v>0.001545500543</v>
       </c>
       <c r="I9" t="n">
-        <v>16.6361737674919</v>
+        <v>0.0166361737674919</v>
       </c>
       <c r="J9" t="n">
-        <v>133.089390139935</v>
+        <v>0.133089390139935</v>
       </c>
       <c r="K9" t="n">
-        <v>175.514208656859</v>
+        <v>0.175514208656859</v>
       </c>
       <c r="L9" t="n">
-        <v>499.16780778902</v>
+        <v>0.499167807789021</v>
       </c>
       <c r="M9" t="n">
         <v>2.84403075744667</v>
@@ -10529,7 +10529,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>332.778538526014</v>
+        <v>0.332778538526014</v>
       </c>
       <c r="P9" t="n">
         <v>1.89602050496445</v>
@@ -10619,16 +10619,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>101.9975978</v>
+        <v>0.1019975978</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1097.92893218515</v>
+        <v>1.09792893218515</v>
       </c>
       <c r="H2" t="n">
-        <v>202.6245073</v>
+        <v>0.2026245073</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10637,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4362.20683100108</v>
+        <v>4.36220683100108</v>
       </c>
       <c r="L2" t="n">
-        <v>3264.27789881593</v>
+        <v>3.26427789881593</v>
       </c>
       <c r="M2" t="n">
         <v>0.748308832038305</v>
@@ -10649,7 +10649,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>544.046316469322</v>
+        <v>0.544046316469322</v>
       </c>
       <c r="P2" t="n">
         <v>0.124718138673051</v>
@@ -10672,28 +10672,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>303.2514168</v>
+        <v>0.3032514168</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>3264.27789881593</v>
+        <v>3.26427789881593</v>
       </c>
       <c r="H3" t="n">
-        <v>151.6257084</v>
+        <v>0.1516257084</v>
       </c>
       <c r="I3" t="n">
-        <v>1632.13894940797</v>
+        <v>1.63213894940797</v>
       </c>
       <c r="J3" t="n">
-        <v>3264.27789881593</v>
+        <v>3.26427789881593</v>
       </c>
       <c r="K3" t="n">
-        <v>4362.20683100108</v>
+        <v>4.36220683100108</v>
       </c>
       <c r="L3" t="n">
-        <v>3264.27789881593</v>
+        <v>3.26427789881593</v>
       </c>
       <c r="M3" t="n">
         <v>0.748308832038305</v>
@@ -10702,7 +10702,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>544.046316469322</v>
+        <v>0.544046316469322</v>
       </c>
       <c r="P3" t="n">
         <v>0.124718138673051</v>
@@ -10792,28 +10792,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.389940809</v>
+        <v>0.000389940809</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.19742528525296</v>
+        <v>0.00419742528525296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1949704045</v>
+        <v>0.0001949704045</v>
       </c>
       <c r="I2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="J2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="K2" t="n">
-        <v>4.19742528525296</v>
+        <v>0.00419742528525296</v>
       </c>
       <c r="L2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10822,7 +10822,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.174892720218873</v>
+        <v>0.000174892720218873</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10912,28 +10912,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220927397</v>
+        <v>0.000220927397</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>9.51248210979548</v>
+        <v>0.00951248210979548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3369214365</v>
+        <v>0.0003369214365</v>
       </c>
       <c r="I2" t="n">
-        <v>3.62671083423035</v>
+        <v>0.00362671083423035</v>
       </c>
       <c r="J2" t="n">
-        <v>39.8938191765339</v>
+        <v>0.0398938191765339</v>
       </c>
       <c r="K2" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L2" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M2" t="n">
         <v>3.59261821396782</v>
@@ -10942,7 +10942,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P2" t="n">
         <v>3.29323336280384</v>
@@ -10965,28 +10965,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.452915476</v>
+        <v>0.000452915476</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>14.6259034230355</v>
+        <v>0.0146259034230355</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3805262815</v>
+        <v>0.0003805262815</v>
       </c>
       <c r="I3" t="n">
-        <v>8.19216967707212</v>
+        <v>0.00819216967707212</v>
       </c>
       <c r="J3" t="n">
-        <v>90.1138664477934</v>
+        <v>0.0901138664477933</v>
       </c>
       <c r="K3" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L3" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M3" t="n">
         <v>3.59261821396782</v>
@@ -10995,7 +10995,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P3" t="n">
         <v>3.29323336280384</v>
@@ -11018,28 +11018,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308137087</v>
+        <v>0.000308137087</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>3.31686853606028</v>
+        <v>0.00331686853606028</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6899649015</v>
+        <v>0.0006899649015</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.42696341765339</v>
+        <v>-0.00742696341765339</v>
       </c>
       <c r="J4" t="n">
-        <v>-81.6965975941873</v>
+        <v>-0.0816965975941873</v>
       </c>
       <c r="K4" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L4" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M4" t="n">
         <v>3.59261821396782</v>
@@ -11048,7 +11048,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P4" t="n">
         <v>3.29323336280384</v>
@@ -11071,28 +11071,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>1.071792716</v>
+        <v>0.001071792716</v>
       </c>
       <c r="F5" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>23.074116598493</v>
+        <v>0.023074116598493</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220432337</v>
+        <v>0.002220432337</v>
       </c>
       <c r="I5" t="n">
-        <v>-47.8026337351991</v>
+        <v>-0.0478026337351991</v>
       </c>
       <c r="J5" t="n">
-        <v>-525.828971087191</v>
+        <v>-0.52582897108719</v>
       </c>
       <c r="K5" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L5" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M5" t="n">
         <v>3.59261821396782</v>
@@ -11101,7 +11101,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P5" t="n">
         <v>3.29323336280384</v>
@@ -11124,28 +11124,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E6" t="n">
-        <v>3.369071958</v>
+        <v>0.003369071958</v>
       </c>
       <c r="F6" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G6" t="n">
-        <v>145.062301743811</v>
+        <v>0.145062301743811</v>
       </c>
       <c r="H6" t="n">
-        <v>3.22761563925</v>
+        <v>0.00322761563925</v>
       </c>
       <c r="I6" t="n">
-        <v>52.1143537015608</v>
+        <v>0.0521143537015608</v>
       </c>
       <c r="J6" t="n">
-        <v>573.257890717169</v>
+        <v>0.573257890717169</v>
       </c>
       <c r="K6" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L6" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M6" t="n">
         <v>3.59261821396782</v>
@@ -11154,7 +11154,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P6" t="n">
         <v>3.29323336280384</v>
@@ -11177,28 +11177,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0861593205</v>
+        <v>0.0030861593205</v>
       </c>
       <c r="F7" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G7" t="n">
-        <v>83.0505737486545</v>
+        <v>0.0830505737486545</v>
       </c>
       <c r="H7" t="n">
-        <v>2.40262416225</v>
+        <v>0.00240262416225</v>
       </c>
       <c r="I7" t="n">
-        <v>38.793716290366</v>
+        <v>0.038793716290366</v>
       </c>
       <c r="J7" t="n">
-        <v>426.730879194026</v>
+        <v>0.426730879194026</v>
       </c>
       <c r="K7" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L7" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M7" t="n">
         <v>3.59261821396782</v>
@@ -11207,7 +11207,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P7" t="n">
         <v>3.29323336280384</v>
@@ -11230,28 +11230,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.719089004</v>
+        <v>0.001719089004</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>18.5047255543595</v>
+        <v>0.0185047255543595</v>
       </c>
       <c r="H8" t="n">
-        <v>3.16181642925</v>
+        <v>0.00316181642925</v>
       </c>
       <c r="I8" t="n">
-        <v>-34.0346224892357</v>
+        <v>-0.0340346224892357</v>
       </c>
       <c r="J8" t="n">
-        <v>-374.380847381593</v>
+        <v>-0.374380847381593</v>
       </c>
       <c r="K8" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L8" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M8" t="n">
         <v>3.59261821396782</v>
@@ -11260,7 +11260,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P8" t="n">
         <v>3.29323336280384</v>
@@ -11283,28 +11283,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6045438545</v>
+        <v>0.0046045438545</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>99.1290388482239</v>
+        <v>0.0991290388482239</v>
       </c>
       <c r="H9" t="n">
-        <v>3.79714802875</v>
+        <v>0.00379714802875</v>
       </c>
       <c r="I9" t="n">
-        <v>40.8734986948331</v>
+        <v>0.0408734986948331</v>
       </c>
       <c r="J9" t="n">
-        <v>449.608485643165</v>
+        <v>0.449608485643165</v>
       </c>
       <c r="K9" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L9" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M9" t="n">
         <v>3.59261821396782</v>
@@ -11313,7 +11313,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P9" t="n">
         <v>3.29323336280384</v>
@@ -11336,16 +11336,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>2.989752203</v>
+        <v>0.002989752203</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>32.1824779655544</v>
+        <v>0.0321824779655544</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8443719885</v>
+        <v>0.0038443719885</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -11354,10 +11354,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L10" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M10" t="n">
         <v>3.59261821396782</v>
@@ -11366,7 +11366,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P10" t="n">
         <v>3.29323336280384</v>
@@ -11389,16 +11389,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>4.698991774</v>
+        <v>0.004698991774</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.5811816361679</v>
+        <v>0.0505811816361679</v>
       </c>
       <c r="H11" t="n">
-        <v>5.79301682</v>
+        <v>0.00579301682</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -11407,10 +11407,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L11" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M11" t="n">
         <v>3.59261821396782</v>
@@ -11419,7 +11419,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P11" t="n">
         <v>3.29323336280384</v>
@@ -11442,28 +11442,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>6.887041866</v>
+        <v>0.006887041866</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>74.1339275134553</v>
+        <v>0.0741339275134553</v>
       </c>
       <c r="H12" t="n">
-        <v>3.443520933</v>
+        <v>0.003443520933</v>
       </c>
       <c r="I12" t="n">
-        <v>37.0669637567277</v>
+        <v>0.0370669637567277</v>
       </c>
       <c r="J12" t="n">
-        <v>407.736601324004</v>
+        <v>0.407736601324004</v>
       </c>
       <c r="K12" t="n">
-        <v>553.17359767761</v>
+        <v>0.55317359767761</v>
       </c>
       <c r="L12" t="n">
-        <v>1987.34154250269</v>
+        <v>1.98734154250269</v>
       </c>
       <c r="M12" t="n">
         <v>3.59261821396782</v>
@@ -11472,7 +11472,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>1821.72974729413</v>
+        <v>1.82172974729413</v>
       </c>
       <c r="P12" t="n">
         <v>3.29323336280384</v>
@@ -11562,28 +11562,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00093</v>
+        <v>0.00000093</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.015016146393972</v>
+        <v>0.000015016146393972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006645733125</v>
+        <v>0.000006645733125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0357682084230355</v>
+        <v>0.0000357682084230355</v>
       </c>
       <c r="J2" t="n">
-        <v>0.178841042115178</v>
+        <v>0.000178841042115178</v>
       </c>
       <c r="K2" t="n">
-        <v>1.85357391776103</v>
+        <v>0.00185357391776103</v>
       </c>
       <c r="L2" t="n">
-        <v>2.37670086531216</v>
+        <v>0.00237670086531216</v>
       </c>
       <c r="M2" t="n">
         <v>1.28222610522219</v>
@@ -11592,7 +11592,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.990292027213402</v>
+        <v>0.000990292027213402</v>
       </c>
       <c r="P2" t="n">
         <v>0.534260877175912</v>
@@ -11615,16 +11615,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01236146625</v>
+        <v>0.00001236146625</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.133062069429494</v>
+        <v>0.000133062069429494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019713079645</v>
+        <v>0.000019713079645</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85357391776103</v>
+        <v>0.00185357391776103</v>
       </c>
       <c r="L3" t="n">
-        <v>2.37670086531216</v>
+        <v>0.00237670086531216</v>
       </c>
       <c r="M3" t="n">
         <v>1.28222610522219</v>
@@ -11645,7 +11645,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.990292027213402</v>
+        <v>0.000990292027213402</v>
       </c>
       <c r="P3" t="n">
         <v>0.534260877175912</v>
@@ -11668,16 +11668,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02706469304</v>
+        <v>0.00002706469304</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.291331464370291</v>
+        <v>0.000291331464370291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03838403984</v>
+        <v>0.00003838403984</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11686,10 +11686,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85357391776103</v>
+        <v>0.00185357391776103</v>
       </c>
       <c r="L4" t="n">
-        <v>2.37670086531216</v>
+        <v>0.00237670086531216</v>
       </c>
       <c r="M4" t="n">
         <v>1.28222610522219</v>
@@ -11698,7 +11698,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.990292027213402</v>
+        <v>0.000990292027213402</v>
       </c>
       <c r="P4" t="n">
         <v>0.534260877175912</v>
@@ -11721,16 +11721,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04970338664</v>
+        <v>0.00004970338664</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.535020308288482</v>
+        <v>0.000535020308288482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.065687928835</v>
+        <v>0.000065687928835</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11739,10 +11739,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85357391776103</v>
+        <v>0.00185357391776103</v>
       </c>
       <c r="L5" t="n">
-        <v>2.37670086531216</v>
+        <v>0.00237670086531216</v>
       </c>
       <c r="M5" t="n">
         <v>1.28222610522219</v>
@@ -11751,7 +11751,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.990292027213402</v>
+        <v>0.000990292027213402</v>
       </c>
       <c r="P5" t="n">
         <v>0.534260877175912</v>
@@ -11774,28 +11774,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08167247103</v>
+        <v>0.00008167247103</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.879143929278794</v>
+        <v>0.000879143929278795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.040836235515</v>
+        <v>0.000040836235515</v>
       </c>
       <c r="I6" t="n">
-        <v>0.439571964639397</v>
+        <v>0.000439571964639397</v>
       </c>
       <c r="J6" t="n">
-        <v>2.19785982319699</v>
+        <v>0.00219785982319699</v>
       </c>
       <c r="K6" t="n">
-        <v>1.85357391776103</v>
+        <v>0.00185357391776103</v>
       </c>
       <c r="L6" t="n">
-        <v>2.37670086531216</v>
+        <v>0.00237670086531216</v>
       </c>
       <c r="M6" t="n">
         <v>1.28222610522219</v>
@@ -11804,7 +11804,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.990292027213402</v>
+        <v>0.000990292027213402</v>
       </c>
       <c r="P6" t="n">
         <v>0.534260877175912</v>
@@ -11894,28 +11894,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.027993112</v>
+        <v>0.000027993112</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.301325209903122</v>
+        <v>0.000301325209903122</v>
       </c>
       <c r="H2" t="n">
-        <v>0.145044621</v>
+        <v>0.000145044621</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.12259679224973</v>
+        <v>-0.00312259679224973</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.4903871689989</v>
+        <v>-0.0124903871689989</v>
       </c>
       <c r="K2" t="n">
-        <v>120.185912109795</v>
+        <v>0.120185912109795</v>
       </c>
       <c r="L2" t="n">
-        <v>217.937261367061</v>
+        <v>0.217937261367061</v>
       </c>
       <c r="M2" t="n">
         <v>1.81333450436325</v>
@@ -11924,7 +11924,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>72.6457537890205</v>
+        <v>0.0726457537890205</v>
       </c>
       <c r="P2" t="n">
         <v>0.604444834787751</v>
@@ -11947,28 +11947,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26209613</v>
+        <v>0.00026209613</v>
       </c>
       <c r="F3" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>8.46381474703983</v>
+        <v>0.00846381474703983</v>
       </c>
       <c r="H3" t="n">
-        <v>0.71875882475</v>
+        <v>0.00071875882475</v>
       </c>
       <c r="I3" t="n">
-        <v>-23.210726310549</v>
+        <v>-0.023210726310549</v>
       </c>
       <c r="J3" t="n">
-        <v>-92.8429052421959</v>
+        <v>-0.0928429052421959</v>
       </c>
       <c r="K3" t="n">
-        <v>120.185912109795</v>
+        <v>0.120185912109795</v>
       </c>
       <c r="L3" t="n">
-        <v>217.937261367061</v>
+        <v>0.217937261367061</v>
       </c>
       <c r="M3" t="n">
         <v>1.81333450436325</v>
@@ -11977,7 +11977,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>72.6457537890205</v>
+        <v>0.0726457537890205</v>
       </c>
       <c r="P3" t="n">
         <v>0.604444834787751</v>
@@ -12000,28 +12000,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1754215195</v>
+        <v>0.0011754215195</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>75.9152757481163</v>
+        <v>0.0759152757481163</v>
       </c>
       <c r="H4" t="n">
-        <v>1.13745419575</v>
+        <v>0.00113745419575</v>
       </c>
       <c r="I4" t="n">
-        <v>36.7315671393972</v>
+        <v>0.0367315671393972</v>
       </c>
       <c r="J4" t="n">
-        <v>146.926268557589</v>
+        <v>0.146926268557589</v>
       </c>
       <c r="K4" t="n">
-        <v>120.185912109795</v>
+        <v>0.120185912109795</v>
       </c>
       <c r="L4" t="n">
-        <v>217.937261367061</v>
+        <v>0.217937261367061</v>
       </c>
       <c r="M4" t="n">
         <v>1.81333450436325</v>
@@ -12030,7 +12030,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>72.6457537890205</v>
+        <v>0.0726457537890205</v>
       </c>
       <c r="P4" t="n">
         <v>0.604444834787751</v>
@@ -12053,28 +12053,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>1.099486872</v>
+        <v>0.001099486872</v>
       </c>
       <c r="F5" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G5" t="n">
-        <v>35.5054964047363</v>
+        <v>0.0355054964047363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.549743436</v>
+        <v>0.000549743436</v>
       </c>
       <c r="I5" t="n">
-        <v>17.7527482023681</v>
+        <v>0.0177527482023681</v>
       </c>
       <c r="J5" t="n">
-        <v>71.0109928094726</v>
+        <v>0.0710109928094726</v>
       </c>
       <c r="K5" t="n">
-        <v>120.185912109795</v>
+        <v>0.120185912109795</v>
       </c>
       <c r="L5" t="n">
-        <v>217.937261367061</v>
+        <v>0.217937261367061</v>
       </c>
       <c r="M5" t="n">
         <v>1.81333450436325</v>
@@ -12083,7 +12083,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>72.6457537890205</v>
+        <v>0.0726457537890205</v>
       </c>
       <c r="P5" t="n">
         <v>0.604444834787751</v>
@@ -12173,28 +12173,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>6.106020943</v>
+        <v>0.006106020943</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>65.7268131646932</v>
+        <v>0.0657268131646932</v>
       </c>
       <c r="H2" t="n">
-        <v>3.0530104715</v>
+        <v>0.0030530104715</v>
       </c>
       <c r="I2" t="n">
-        <v>32.8634065823466</v>
+        <v>0.0328634065823466</v>
       </c>
       <c r="J2" t="n">
-        <v>32.8634065823466</v>
+        <v>0.0328634065823466</v>
       </c>
       <c r="K2" t="n">
-        <v>65.7268131646932</v>
+        <v>0.0657268131646932</v>
       </c>
       <c r="L2" t="n">
-        <v>32.8634065823466</v>
+        <v>0.0328634065823466</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12203,7 +12203,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>2.73861721519555</v>
+        <v>0.00273861721519555</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12293,28 +12293,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0128</v>
+        <v>0.0000128</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13778256189451</v>
+        <v>0.00013778256189451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0064</v>
+        <v>0.0000064</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0688912809472551</v>
+        <v>0.0000688912809472551</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0688912809472551</v>
+        <v>0.0000688912809472551</v>
       </c>
       <c r="K2" t="n">
-        <v>0.13778256189451</v>
+        <v>0.00013778256189451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0688912809472551</v>
+        <v>0.0000688912809472551</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00574094007893793</v>
+        <v>0.00000574094007893793</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12413,28 +12413,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.323594615</v>
+        <v>0.000323594615</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.48325742734123</v>
+        <v>0.00348325742734123</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1617973075</v>
+        <v>0.0001617973075</v>
       </c>
       <c r="I2" t="n">
-        <v>1.74162871367061</v>
+        <v>0.00174162871367061</v>
       </c>
       <c r="J2" t="n">
-        <v>1.74162871367061</v>
+        <v>0.00174162871367061</v>
       </c>
       <c r="K2" t="n">
-        <v>3.48325742734123</v>
+        <v>0.00348325742734123</v>
       </c>
       <c r="L2" t="n">
-        <v>1.74162871367061</v>
+        <v>0.00174162871367061</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12443,7 +12443,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.145135726139218</v>
+        <v>0.000145135726139218</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12533,28 +12533,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.072152864</v>
+        <v>0.000072152864</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.776672378902045</v>
+        <v>0.000776672378902045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.036076432</v>
+        <v>0.000036076432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.388336189451023</v>
+        <v>0.000388336189451023</v>
       </c>
       <c r="J2" t="n">
-        <v>0.388336189451023</v>
+        <v>0.000388336189451023</v>
       </c>
       <c r="K2" t="n">
-        <v>0.776672378902045</v>
+        <v>0.000776672378902045</v>
       </c>
       <c r="L2" t="n">
-        <v>0.388336189451023</v>
+        <v>0.000388336189451023</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12563,7 +12563,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0323613491209186</v>
+        <v>0.0000323613491209186</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12653,28 +12653,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0067</v>
+        <v>0.0000067</v>
       </c>
       <c r="F2" t="n">
         <v>-6.45855758880517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0721205597416577</v>
+        <v>0.0000721205597416577</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0340589636</v>
+        <v>0.0000340589636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.219971777825619</v>
+        <v>-0.000219971777825619</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.659915333476857</v>
+        <v>-0.000659915333476857</v>
       </c>
       <c r="K2" t="n">
-        <v>2.54744881076426</v>
+        <v>0.00254744881076426</v>
       </c>
       <c r="L2" t="n">
-        <v>3.99709882540366</v>
+        <v>0.00399709882540366</v>
       </c>
       <c r="M2" t="n">
         <v>1.56905952673667</v>
@@ -12683,7 +12683,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.999274706350915</v>
+        <v>0.000999274706350915</v>
       </c>
       <c r="P2" t="n">
         <v>0.392264881684167</v>
@@ -12706,28 +12706,28 @@
         <v>17.2228202368138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0614179272</v>
+        <v>0.0000614179272</v>
       </c>
       <c r="F3" t="n">
         <v>6.45855758880517</v>
       </c>
       <c r="G3" t="n">
-        <v>1.05778991948332</v>
+        <v>0.00105778991948332</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0965536191</v>
+        <v>0.0000965536191</v>
       </c>
       <c r="I3" t="n">
-        <v>0.623597109364909</v>
+        <v>0.000623597109364909</v>
       </c>
       <c r="J3" t="n">
-        <v>1.87079132809473</v>
+        <v>0.00187079132809473</v>
       </c>
       <c r="K3" t="n">
-        <v>2.54744881076426</v>
+        <v>0.00254744881076426</v>
       </c>
       <c r="L3" t="n">
-        <v>3.99709882540366</v>
+        <v>0.00399709882540366</v>
       </c>
       <c r="M3" t="n">
         <v>1.56905952673667</v>
@@ -12736,7 +12736,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.999274706350915</v>
+        <v>0.000999274706350915</v>
       </c>
       <c r="P3" t="n">
         <v>0.392264881684167</v>
@@ -12759,28 +12759,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.131689311</v>
+        <v>0.000131689311</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41753833153929</v>
+        <v>0.00141753833153929</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0658446555</v>
+        <v>0.0000658446555</v>
       </c>
       <c r="I4" t="n">
-        <v>0.708769165769645</v>
+        <v>0.000708769165769645</v>
       </c>
       <c r="J4" t="n">
-        <v>2.12630749730893</v>
+        <v>0.00212630749730893</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54744881076426</v>
+        <v>0.00254744881076426</v>
       </c>
       <c r="L4" t="n">
-        <v>3.99709882540366</v>
+        <v>0.00399709882540366</v>
       </c>
       <c r="M4" t="n">
         <v>1.56905952673667</v>
@@ -12789,7 +12789,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.999274706350915</v>
+        <v>0.000999274706350915</v>
       </c>
       <c r="P4" t="n">
         <v>0.392264881684167</v>
@@ -12879,28 +12879,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0388</v>
+        <v>0.0000388</v>
       </c>
       <c r="F2" t="n">
         <v>-2.69106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.835306781485468</v>
+        <v>0.000835306781485468</v>
       </c>
       <c r="H2" t="n">
-        <v>0.177085888375</v>
+        <v>0.000177085888375</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.476549753431109</v>
+        <v>-0.000476549753431109</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.42964926029333</v>
+        <v>-0.00142964926029333</v>
       </c>
       <c r="K2" t="n">
-        <v>19.3744026877018</v>
+        <v>0.0193744026877018</v>
       </c>
       <c r="L2" t="n">
-        <v>43.155752792317</v>
+        <v>0.043155752792317</v>
       </c>
       <c r="M2" t="n">
         <v>2.22746236299252</v>
@@ -12909,7 +12909,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>10.7889381980793</v>
+        <v>0.0107889381980793</v>
       </c>
       <c r="P2" t="n">
         <v>0.556865590748131</v>
@@ -12932,28 +12932,28 @@
         <v>24.2195909580194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.31537177675</v>
+        <v>0.00031537177675</v>
       </c>
       <c r="F3" t="n">
         <v>13.4553283100108</v>
       </c>
       <c r="G3" t="n">
-        <v>7.63817543258881</v>
+        <v>0.0076381754325888</v>
       </c>
       <c r="H3" t="n">
-        <v>0.664033644375</v>
+        <v>0.000664033644375</v>
       </c>
       <c r="I3" t="n">
-        <v>8.93479069395856</v>
+        <v>0.00893479069395856</v>
       </c>
       <c r="J3" t="n">
-        <v>26.8043720818757</v>
+        <v>0.0268043720818757</v>
       </c>
       <c r="K3" t="n">
-        <v>19.3744026877018</v>
+        <v>0.0193744026877018</v>
       </c>
       <c r="L3" t="n">
-        <v>43.155752792317</v>
+        <v>0.043155752792317</v>
       </c>
       <c r="M3" t="n">
         <v>2.22746236299252</v>
@@ -12962,7 +12962,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>10.7889381980793</v>
+        <v>0.0107889381980793</v>
       </c>
       <c r="P3" t="n">
         <v>0.556865590748131</v>
@@ -12985,28 +12985,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.012695512</v>
+        <v>0.001012695512</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>10.9009204736276</v>
+        <v>0.0109009204736276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.506347756</v>
+        <v>0.000506347756</v>
       </c>
       <c r="I4" t="n">
-        <v>5.45046023681378</v>
+        <v>0.00545046023681378</v>
       </c>
       <c r="J4" t="n">
-        <v>16.3513807104413</v>
+        <v>0.0163513807104413</v>
       </c>
       <c r="K4" t="n">
-        <v>19.3744026877018</v>
+        <v>0.0193744026877018</v>
       </c>
       <c r="L4" t="n">
-        <v>43.155752792317</v>
+        <v>0.043155752792317</v>
       </c>
       <c r="M4" t="n">
         <v>2.22746236299252</v>
@@ -13015,7 +13015,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>10.7889381980793</v>
+        <v>0.0107889381980793</v>
       </c>
       <c r="P4" t="n">
         <v>0.556865590748131</v>
@@ -13105,28 +13105,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003803162</v>
+        <v>0.000003803162</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0409382346609257</v>
+        <v>0.0000409382346609257</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005705252</v>
+        <v>0.000005705252</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0614128310010764</v>
+        <v>-0.0000614128310010764</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.184238493003229</v>
+        <v>-0.000184238493003229</v>
       </c>
       <c r="K2" t="n">
-        <v>0.368556081808396</v>
+        <v>0.000368556081808396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.245764488697524</v>
+        <v>0.000245764488697524</v>
       </c>
       <c r="M2" t="n">
         <v>0.666830642141707</v>
@@ -13135,7 +13135,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0614411221743811</v>
+        <v>0.000061441122174381</v>
       </c>
       <c r="P2" t="n">
         <v>0.166707660535427</v>
@@ -13158,16 +13158,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007607342</v>
+        <v>0.000007607342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.163774854682454</v>
+        <v>0.000163774854682454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0076089245</v>
+        <v>0.0000076089245</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -13176,10 +13176,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.368556081808396</v>
+        <v>0.000368556081808396</v>
       </c>
       <c r="L3" t="n">
-        <v>0.245764488697524</v>
+        <v>0.000245764488697524</v>
       </c>
       <c r="M3" t="n">
         <v>0.666830642141707</v>
@@ -13188,7 +13188,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0614411221743811</v>
+        <v>0.000061441122174381</v>
       </c>
       <c r="P3" t="n">
         <v>0.166707660535427</v>
@@ -13211,28 +13211,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007610507</v>
+        <v>0.000007610507</v>
       </c>
       <c r="F4" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.163842992465016</v>
+        <v>0.000163842992465016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0038052535</v>
+        <v>0.0000038052535</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0819214962325081</v>
+        <v>0.0000819214962325081</v>
       </c>
       <c r="J4" t="n">
-        <v>0.245764488697524</v>
+        <v>0.000245764488697524</v>
       </c>
       <c r="K4" t="n">
-        <v>0.368556081808396</v>
+        <v>0.000368556081808396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.245764488697524</v>
+        <v>0.000245764488697524</v>
       </c>
       <c r="M4" t="n">
         <v>0.666830642141707</v>
@@ -13241,7 +13241,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0614411221743811</v>
+        <v>0.000061441122174381</v>
       </c>
       <c r="P4" t="n">
         <v>0.166707660535427</v>
@@ -13331,28 +13331,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007950438</v>
+        <v>0.000007950438</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.128370904198062</v>
+        <v>0.000128370904198062</v>
       </c>
       <c r="H2" t="n">
-        <v>0.011985482</v>
+        <v>0.000011985482</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0645074381054898</v>
+        <v>0.0000645074381054898</v>
       </c>
       <c r="J2" t="n">
-        <v>0.12901487621098</v>
+        <v>0.00012901487621098</v>
       </c>
       <c r="K2" t="n">
-        <v>0.300820053821313</v>
+        <v>0.000300820053821313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.30146402583423</v>
+        <v>0.00030146402583423</v>
       </c>
       <c r="M2" t="n">
         <v>1.00214072168639</v>
@@ -13361,7 +13361,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0502440043057051</v>
+        <v>0.0000502440043057051</v>
       </c>
       <c r="P2" t="n">
         <v>0.167023453614399</v>
@@ -13384,28 +13384,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.016020526</v>
+        <v>0.000016020526</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.172449149623251</v>
+        <v>0.000172449149623251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008010263</v>
+        <v>0.000008010263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0862245748116254</v>
+        <v>0.0000862245748116254</v>
       </c>
       <c r="J3" t="n">
-        <v>0.172449149623251</v>
+        <v>0.000172449149623251</v>
       </c>
       <c r="K3" t="n">
-        <v>0.300820053821313</v>
+        <v>0.000300820053821313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.30146402583423</v>
+        <v>0.00030146402583423</v>
       </c>
       <c r="M3" t="n">
         <v>1.00214072168639</v>
@@ -13414,7 +13414,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0502440043057051</v>
+        <v>0.0000502440043057051</v>
       </c>
       <c r="P3" t="n">
         <v>0.167023453614399</v>
@@ -13504,16 +13504,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.742599215</v>
+        <v>0.000742599215</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.99353299246502</v>
+        <v>0.00799353299246502</v>
       </c>
       <c r="H2" t="n">
-        <v>2.390320298</v>
+        <v>0.002390320298</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>102.9064965662</v>
+        <v>0.1029064965662</v>
       </c>
       <c r="L2" t="n">
-        <v>77.1696383476857</v>
+        <v>0.0771696383476857</v>
       </c>
       <c r="M2" t="n">
         <v>0.7499005497485</v>
@@ -13534,7 +13534,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>19.2924095869214</v>
+        <v>0.0192924095869214</v>
       </c>
       <c r="P2" t="n">
         <v>0.187475137437125</v>
@@ -13557,16 +13557,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>4.038041381</v>
+        <v>0.004038041381</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.4665380086114</v>
+        <v>0.0434665380086114</v>
       </c>
       <c r="H3" t="n">
-        <v>4.408707158</v>
+        <v>0.004408707158</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>102.9064965662</v>
+        <v>0.1029064965662</v>
       </c>
       <c r="L3" t="n">
-        <v>77.1696383476857</v>
+        <v>0.0771696383476857</v>
       </c>
       <c r="M3" t="n">
         <v>0.7499005497485</v>
@@ -13587,7 +13587,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>19.2924095869214</v>
+        <v>0.0192924095869214</v>
       </c>
       <c r="P3" t="n">
         <v>0.187475137437125</v>
@@ -13610,28 +13610,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>4.779372935</v>
+        <v>0.004779372935</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>51.4464255651238</v>
+        <v>0.0514464255651238</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3896864675</v>
+        <v>0.0023896864675</v>
       </c>
       <c r="I4" t="n">
-        <v>25.7232127825619</v>
+        <v>0.0257232127825619</v>
       </c>
       <c r="J4" t="n">
-        <v>77.1696383476857</v>
+        <v>0.0771696383476857</v>
       </c>
       <c r="K4" t="n">
-        <v>102.9064965662</v>
+        <v>0.1029064965662</v>
       </c>
       <c r="L4" t="n">
-        <v>77.1696383476857</v>
+        <v>0.0771696383476857</v>
       </c>
       <c r="M4" t="n">
         <v>0.7499005497485</v>
@@ -13640,7 +13640,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2924095869214</v>
+        <v>0.0192924095869214</v>
       </c>
       <c r="P4" t="n">
         <v>0.187475137437125</v>
@@ -13730,16 +13730,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>4.959353851</v>
+        <v>0.004959353851</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.383787416577</v>
+        <v>0.053383787416577</v>
       </c>
       <c r="H2" t="n">
-        <v>31.8795953405</v>
+        <v>0.0318795953405</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13748,10 +13748,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>686.320674714747</v>
+        <v>0.686320674714747</v>
       </c>
       <c r="L2" t="n">
-        <v>632.93688729817</v>
+        <v>0.63293688729817</v>
       </c>
       <c r="M2" t="n">
         <v>0.922217427824443</v>
@@ -13760,7 +13760,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>105.489481216362</v>
+        <v>0.105489481216362</v>
       </c>
       <c r="P2" t="n">
         <v>0.153702904637407</v>
@@ -13783,28 +13783,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>58.79983683</v>
+        <v>0.05879983683</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>632.93688729817</v>
+        <v>0.63293688729817</v>
       </c>
       <c r="H3" t="n">
-        <v>29.399918415</v>
+        <v>0.029399918415</v>
       </c>
       <c r="I3" t="n">
-        <v>316.468443649085</v>
+        <v>0.316468443649085</v>
       </c>
       <c r="J3" t="n">
-        <v>632.93688729817</v>
+        <v>0.63293688729817</v>
       </c>
       <c r="K3" t="n">
-        <v>686.320674714747</v>
+        <v>0.686320674714747</v>
       </c>
       <c r="L3" t="n">
-        <v>632.93688729817</v>
+        <v>0.63293688729817</v>
       </c>
       <c r="M3" t="n">
         <v>0.922217427824443</v>
@@ -13813,7 +13813,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>105.489481216362</v>
+        <v>0.105489481216362</v>
       </c>
       <c r="P3" t="n">
         <v>0.153702904637407</v>
@@ -13903,28 +13903,28 @@
         <v>49.5156081808396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0184</v>
+        <v>0.0000184</v>
       </c>
       <c r="F2" t="n">
         <v>-297.093649085038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.911087190527449</v>
+        <v>0.000911087190527449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47522508297804</v>
+        <v>0.00047522508297804</v>
       </c>
       <c r="I2" t="n">
-        <v>-141.186354038686</v>
+        <v>-0.141186354038686</v>
       </c>
       <c r="J2" t="n">
-        <v>-847.118124232114</v>
+        <v>-0.847118124232114</v>
       </c>
       <c r="K2" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L2" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M2" t="n">
         <v>3.63174994948116</v>
@@ -13933,7 +13933,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P2" t="n">
         <v>1.81587497474058</v>
@@ -13956,28 +13956,28 @@
         <v>346.609257265877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.93205016595608</v>
+        <v>0.00093205016595608</v>
       </c>
       <c r="F3" t="n">
         <v>-170.075349838536</v>
       </c>
       <c r="G3" t="n">
-        <v>323.057215756574</v>
+        <v>0.323057215756574</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88065101818422</v>
+        <v>0.00188065101818422</v>
       </c>
       <c r="I3" t="n">
-        <v>-319.852379841881</v>
+        <v>-0.319852379841881</v>
       </c>
       <c r="J3" t="n">
-        <v>-1919.11427905129</v>
+        <v>-1.91911427905129</v>
       </c>
       <c r="K3" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L3" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M3" t="n">
         <v>3.63174994948116</v>
@@ -13986,7 +13986,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P3" t="n">
         <v>1.81587497474058</v>
@@ -14009,28 +14009,28 @@
         <v>516.684607104413</v>
       </c>
       <c r="E4" t="n">
-        <v>2.82925187041237</v>
+        <v>0.00282925187041237</v>
       </c>
       <c r="F4" t="n">
         <v>335.844994617869</v>
       </c>
       <c r="G4" t="n">
-        <v>1461.83089106344</v>
+        <v>1.46183089106344</v>
       </c>
       <c r="H4" t="n">
-        <v>3.39904552926868</v>
+        <v>0.00339904552926868</v>
       </c>
       <c r="I4" t="n">
-        <v>1141.55242748313</v>
+        <v>1.14155242748313</v>
       </c>
       <c r="J4" t="n">
-        <v>6849.31456489879</v>
+        <v>6.84931456489879</v>
       </c>
       <c r="K4" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L4" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M4" t="n">
         <v>3.63174994948116</v>
@@ -14039,7 +14039,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P4" t="n">
         <v>1.81587497474058</v>
@@ -14062,28 +14062,28 @@
         <v>180.839612486545</v>
       </c>
       <c r="E5" t="n">
-        <v>3.968839188125</v>
+        <v>0.003968839188125</v>
       </c>
       <c r="F5" t="n">
         <v>137.78256189451</v>
       </c>
       <c r="G5" t="n">
-        <v>717.723340801938</v>
+        <v>0.717723340801938</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94498236372917</v>
+        <v>0.00294498236372917</v>
       </c>
       <c r="I5" t="n">
-        <v>405.767214808755</v>
+        <v>0.405767214808755</v>
       </c>
       <c r="J5" t="n">
-        <v>2434.60328885253</v>
+        <v>2.43460328885253</v>
       </c>
       <c r="K5" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L5" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M5" t="n">
         <v>3.63174994948116</v>
@@ -14092,7 +14092,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P5" t="n">
         <v>1.81587497474058</v>
@@ -14115,28 +14115,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E6" t="n">
-        <v>1.92112553933333</v>
+        <v>0.00192112553933333</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>82.7179995407248</v>
+        <v>0.0827179995407248</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92084191416667</v>
+        <v>0.00292084191416667</v>
       </c>
       <c r="I6" t="n">
-        <v>31.4407095174022</v>
+        <v>0.0314407095174022</v>
       </c>
       <c r="J6" t="n">
-        <v>188.644257104413</v>
+        <v>0.188644257104413</v>
       </c>
       <c r="K6" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L6" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M6" t="n">
         <v>3.63174994948116</v>
@@ -14145,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P6" t="n">
         <v>1.81587497474058</v>
@@ -14168,28 +14168,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E7" t="n">
-        <v>3.920558289</v>
+        <v>0.003920558289</v>
       </c>
       <c r="F7" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G7" t="n">
-        <v>126.60575744887</v>
+        <v>0.12660575744887</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9602791445</v>
+        <v>0.0019602791445</v>
       </c>
       <c r="I7" t="n">
-        <v>63.3028787244349</v>
+        <v>0.0633028787244349</v>
       </c>
       <c r="J7" t="n">
-        <v>379.817272346609</v>
+        <v>0.379817272346609</v>
       </c>
       <c r="K7" t="n">
-        <v>2712.84629180207</v>
+        <v>2.71284629180208</v>
       </c>
       <c r="L7" t="n">
-        <v>9852.37938320234</v>
+        <v>9.85237938320234</v>
       </c>
       <c r="M7" t="n">
         <v>3.63174994948116</v>
@@ -14198,7 +14198,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>4926.18969160117</v>
+        <v>4.92618969160117</v>
       </c>
       <c r="P7" t="n">
         <v>1.81587497474058</v>
@@ -14288,28 +14288,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08225727212</v>
+        <v>0.00008225727212</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.885438881808396</v>
+        <v>0.000885438881808396</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04112863606</v>
+        <v>0.00004112863606</v>
       </c>
       <c r="I2" t="n">
-        <v>0.442719440904198</v>
+        <v>0.000442719440904198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.442719440904198</v>
+        <v>0.000442719440904198</v>
       </c>
       <c r="K2" t="n">
-        <v>0.885438881808396</v>
+        <v>0.000885438881808396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.442719440904198</v>
+        <v>0.000442719440904198</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -14318,7 +14318,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0368932867420165</v>
+        <v>0.0000368932867420165</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -14408,28 +14408,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.146132525</v>
+        <v>0.000146132525</v>
       </c>
       <c r="F2" t="n">
         <v>-3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57300888051668</v>
+        <v>0.00157300888051668</v>
       </c>
       <c r="H2" t="n">
-        <v>0.284349853666667</v>
+        <v>0.000284349853666667</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.02027216959694</v>
+        <v>-0.00102027216959694</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.08108867838775</v>
+        <v>-0.00408108867838775</v>
       </c>
       <c r="K2" t="n">
-        <v>37.0107846423873</v>
+        <v>0.0370107846423873</v>
       </c>
       <c r="L2" t="n">
-        <v>55.4686594940797</v>
+        <v>0.0554686594940797</v>
       </c>
       <c r="M2" t="n">
         <v>1.49871611828929</v>
@@ -14438,7 +14438,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>18.4895531646932</v>
+        <v>0.0184895531646932</v>
       </c>
       <c r="P2" t="n">
         <v>0.499572039429765</v>
@@ -14461,28 +14461,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.422567182333333</v>
+        <v>0.000422567182333333</v>
       </c>
       <c r="F3" t="n">
         <v>-1.7940437746681</v>
       </c>
       <c r="G3" t="n">
-        <v>6.06483218275326</v>
+        <v>0.00606483218275326</v>
       </c>
       <c r="H3" t="n">
-        <v>0.644598006666667</v>
+        <v>0.000644598006666667</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.1564370410238</v>
+        <v>-0.0011564370410238</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.62574816409521</v>
+        <v>-0.0046257481640952</v>
       </c>
       <c r="K3" t="n">
-        <v>37.0107846423873</v>
+        <v>0.0370107846423873</v>
       </c>
       <c r="L3" t="n">
-        <v>55.4686594940797</v>
+        <v>0.0554686594940797</v>
       </c>
       <c r="M3" t="n">
         <v>1.49871611828929</v>
@@ -14491,7 +14491,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>18.4895531646932</v>
+        <v>0.0184895531646932</v>
       </c>
       <c r="P3" t="n">
         <v>0.499572039429765</v>
@@ -14514,28 +14514,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.866628831</v>
+        <v>0.000866628831</v>
       </c>
       <c r="F4" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>13.992930532831</v>
+        <v>0.013992930532831</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1477160215</v>
+        <v>0.0011477160215</v>
       </c>
       <c r="I4" t="n">
-        <v>6.17715835037675</v>
+        <v>0.00617715835037675</v>
       </c>
       <c r="J4" t="n">
-        <v>24.708633401507</v>
+        <v>0.024708633401507</v>
       </c>
       <c r="K4" t="n">
-        <v>37.0107846423873</v>
+        <v>0.0370107846423873</v>
       </c>
       <c r="L4" t="n">
-        <v>55.4686594940797</v>
+        <v>0.0554686594940797</v>
       </c>
       <c r="M4" t="n">
         <v>1.49871611828929</v>
@@ -14544,7 +14544,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4895531646932</v>
+        <v>0.0184895531646932</v>
       </c>
       <c r="P4" t="n">
         <v>0.499572039429765</v>
@@ -14567,28 +14567,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.428803212</v>
+        <v>0.001428803212</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>15.3800130462863</v>
+        <v>0.0153800130462863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.714401606</v>
+        <v>0.000714401606</v>
       </c>
       <c r="I5" t="n">
-        <v>7.69000652314317</v>
+        <v>0.00769000652314317</v>
       </c>
       <c r="J5" t="n">
-        <v>30.7600260925727</v>
+        <v>0.0307600260925727</v>
       </c>
       <c r="K5" t="n">
-        <v>37.0107846423873</v>
+        <v>0.0370107846423873</v>
       </c>
       <c r="L5" t="n">
-        <v>55.4686594940797</v>
+        <v>0.0554686594940797</v>
       </c>
       <c r="M5" t="n">
         <v>1.49871611828929</v>
@@ -14597,7 +14597,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4895531646932</v>
+        <v>0.0184895531646932</v>
       </c>
       <c r="P5" t="n">
         <v>0.499572039429765</v>
@@ -14687,28 +14687,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.061554035</v>
+        <v>0.000061554035</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.993875699677072</v>
+        <v>0.000993875699677072</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0880331815</v>
+        <v>0.0000880331815</v>
       </c>
       <c r="I2" t="n">
-        <v>0.473806143702906</v>
+        <v>0.000473806143702907</v>
       </c>
       <c r="J2" t="n">
-        <v>1.89522457481163</v>
+        <v>0.00189522457481163</v>
       </c>
       <c r="K2" t="n">
-        <v>77.2114053444564</v>
+        <v>0.0772114053444564</v>
       </c>
       <c r="L2" t="n">
-        <v>146.758935791173</v>
+        <v>0.146758935791173</v>
       </c>
       <c r="M2" t="n">
         <v>1.90074167328584</v>
@@ -14717,7 +14717,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>48.9196452637244</v>
+        <v>0.0489196452637244</v>
       </c>
       <c r="P2" t="n">
         <v>0.633580557761947</v>
@@ -14740,16 +14740,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.114512328</v>
+        <v>0.000114512328</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23264077502691</v>
+        <v>0.00123264077502691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.175844559</v>
+        <v>0.000175844559</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -14758,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>77.2114053444564</v>
+        <v>0.0772114053444564</v>
       </c>
       <c r="L3" t="n">
-        <v>146.758935791173</v>
+        <v>0.146758935791173</v>
       </c>
       <c r="M3" t="n">
         <v>1.90074167328584</v>
@@ -14770,7 +14770,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>48.9196452637244</v>
+        <v>0.0489196452637244</v>
       </c>
       <c r="P3" t="n">
         <v>0.633580557761947</v>
@@ -14793,16 +14793,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23717679</v>
+        <v>0.00023717679</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.55303326157158</v>
+        <v>0.00255303326157158</v>
       </c>
       <c r="H4" t="n">
-        <v>3.483048088</v>
+        <v>0.003483048088</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -14811,10 +14811,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>77.2114053444564</v>
+        <v>0.0772114053444564</v>
       </c>
       <c r="L4" t="n">
-        <v>146.758935791173</v>
+        <v>0.146758935791173</v>
       </c>
       <c r="M4" t="n">
         <v>1.90074167328584</v>
@@ -14823,7 +14823,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>48.9196452637244</v>
+        <v>0.0489196452637244</v>
       </c>
       <c r="P4" t="n">
         <v>0.633580557761947</v>
@@ -14846,28 +14846,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>6.728919386</v>
+        <v>0.006728919386</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>72.4318556081809</v>
+        <v>0.0724318556081808</v>
       </c>
       <c r="H5" t="n">
-        <v>3.364459693</v>
+        <v>0.003364459693</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2159278040904</v>
+        <v>0.0362159278040904</v>
       </c>
       <c r="J5" t="n">
-        <v>144.863711216362</v>
+        <v>0.144863711216362</v>
       </c>
       <c r="K5" t="n">
-        <v>77.2114053444564</v>
+        <v>0.0772114053444564</v>
       </c>
       <c r="L5" t="n">
-        <v>146.758935791173</v>
+        <v>0.146758935791173</v>
       </c>
       <c r="M5" t="n">
         <v>1.90074167328584</v>
@@ -14876,7 +14876,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>48.9196452637244</v>
+        <v>0.0489196452637244</v>
       </c>
       <c r="P5" t="n">
         <v>0.633580557761947</v>
